--- a/docs/scATACpipe_module_references.xlsx
+++ b/docs/scATACpipe_module_references.xlsx
@@ -8,13 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kaihu/Projects/workflow/scATACpipe/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DF145887-2202-EE41-8B77-B88079F2A0C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8ED3A1E2-269D-EF4F-9517-1C3843BFFDCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1200" yWindow="500" windowWidth="25680" windowHeight="16300" xr2:uid="{D5566E01-952C-494C-8CCC-37924E7B856D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -2042,16 +2041,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B4C11B6-A3CD-3A4A-9026-2605324DC6E8}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/docs/scATACpipe_module_references.xlsx
+++ b/docs/scATACpipe_module_references.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kaihu/Projects/workflow/scATACpipe/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE03C0B8-57B7-104C-A362-8C01AC17F6DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E542167-D7FA-E14A-8045-4FFD97C8D24B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1220" yWindow="700" windowWidth="25680" windowHeight="16300" xr2:uid="{D5566E01-952C-494C-8CCC-37924E7B856D}"/>
+    <workbookView xWindow="29140" yWindow="-1320" windowWidth="25680" windowHeight="16300" xr2:uid="{D5566E01-952C-494C-8CCC-37924E7B856D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="496" uniqueCount="271">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="490" uniqueCount="265">
   <si>
     <t>Module</t>
   </si>
@@ -144,9 +144,6 @@
     <t>ARCHR_ADD_DOUBLETSCORES</t>
   </si>
   <si>
-    <t>ARCHR_GET_ANNOTATION</t>
-  </si>
-  <si>
     <t>ARCHR_ARCHRPROJECT_ANNOTATION</t>
   </si>
   <si>
@@ -246,9 +243,6 @@
     <t>ARCHR_GET_CLUSTERING_TSV</t>
   </si>
   <si>
-    <t>hukai916/r_sc:0.5</t>
-  </si>
-  <si>
     <t>FastQC [1]</t>
   </si>
   <si>
@@ -276,12 +270,6 @@
     <t>cellranger-atac [9]</t>
   </si>
   <si>
-    <t>wrapper of createGene/GenomeAnnotation [ArchR, 10]</t>
-  </si>
-  <si>
-    <t>build gene/genomeAnnotation files with Bioconductor files</t>
-  </si>
-  <si>
     <t>ARCHR_CREATE_ARROWFILES</t>
   </si>
   <si>
@@ -549,9 +537,6 @@
     <t>FILTER_CELL_CHROMAP</t>
   </si>
   <si>
-    <t>DOWNSTRAM_ARCHR</t>
-  </si>
-  <si>
     <t>Filter valid fragments according to valid barcodes.</t>
   </si>
   <si>
@@ -595,9 +580,6 @@
   </si>
   <si>
     <t>BUILD_GENE_ANNOTATION</t>
-  </si>
-  <si>
-    <t>hukai916/r_util:0.1</t>
   </si>
   <si>
     <t>wrapper around ArchR::addDoubletScores() [10]</t>
@@ -890,7 +872,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -907,20 +889,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -929,9 +902,6 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -946,13 +916,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -964,9 +928,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -975,6 +936,15 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1290,461 +1260,461 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54F55325-D17D-694B-BA79-190199DCE89A}">
-  <dimension ref="A1:F104"/>
+  <dimension ref="A1:F103"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="112" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A51" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B54" sqref="B54"/>
+      <pane ySplit="1" topLeftCell="A58" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E60" sqref="E60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="38.6640625" style="5" customWidth="1"/>
+    <col min="1" max="1" width="38.6640625" style="4" customWidth="1"/>
     <col min="2" max="2" width="52.33203125" style="2" customWidth="1"/>
     <col min="3" max="3" width="30.33203125" style="2" customWidth="1"/>
     <col min="4" max="4" width="26.1640625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="36.33203125" style="5" customWidth="1"/>
+    <col min="5" max="5" width="36.33203125" style="4" customWidth="1"/>
     <col min="6" max="6" width="39.83203125" style="2" customWidth="1"/>
-    <col min="7" max="16384" width="10.83203125" style="5"/>
+    <col min="7" max="16384" width="10.83203125" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="85" x14ac:dyDescent="0.2">
+      <c r="A2" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="68" x14ac:dyDescent="0.2">
+      <c r="A3" s="15"/>
+      <c r="B3" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="F3" s="7"/>
+    </row>
+    <row r="4" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+      <c r="A4" s="15"/>
+      <c r="B4" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="D1" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" s="7" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="85" x14ac:dyDescent="0.2">
-      <c r="A2" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="D2" s="9" t="s">
+      <c r="C4" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="D4" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="E2" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="F2" s="9" t="s">
+      <c r="E4" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="F4" s="7"/>
+    </row>
+    <row r="5" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+      <c r="A5" s="15"/>
+      <c r="B5" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="F5" s="7"/>
+    </row>
+    <row r="6" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+      <c r="A6" s="15"/>
+      <c r="B6" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="68" x14ac:dyDescent="0.2">
+      <c r="A7" s="15"/>
+      <c r="B7" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="A8" s="15"/>
+      <c r="B8" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F8" s="7"/>
+    </row>
+    <row r="9" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="A9" s="15"/>
+      <c r="B9" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F9" s="7"/>
+    </row>
+    <row r="10" spans="1:6" ht="102" x14ac:dyDescent="0.2">
+      <c r="A10" s="15"/>
+      <c r="B10" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="85" x14ac:dyDescent="0.2">
+      <c r="A11" s="15"/>
+      <c r="B11" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="85" x14ac:dyDescent="0.2">
+      <c r="A12" s="15"/>
+      <c r="B12" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="102" x14ac:dyDescent="0.2">
+      <c r="A13" s="15"/>
+      <c r="B13" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="102" x14ac:dyDescent="0.2">
+      <c r="A14" s="15"/>
+      <c r="B14" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="68" x14ac:dyDescent="0.2">
+      <c r="A15" s="15"/>
+      <c r="B15" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="85" x14ac:dyDescent="0.2">
+      <c r="A16" s="15"/>
+      <c r="B16" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+      <c r="A17" s="15"/>
+      <c r="B17" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="F17" s="7"/>
+    </row>
+    <row r="18" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+      <c r="A18" s="15"/>
+      <c r="B18" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F18" s="7"/>
+    </row>
+    <row r="19" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+      <c r="A19" s="15"/>
+      <c r="B19" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F19" s="7" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="68" x14ac:dyDescent="0.2">
-      <c r="A3" s="8"/>
-      <c r="B3" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="C3" s="9" t="s">
-        <v>141</v>
-      </c>
-      <c r="D3" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="E3" s="9" t="s">
+    <row r="20" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A20" s="15"/>
+      <c r="B20" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="E20" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="F3" s="9"/>
-    </row>
-    <row r="4" spans="1:6" ht="51" x14ac:dyDescent="0.2">
-      <c r="A4" s="8"/>
-      <c r="B4" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>141</v>
-      </c>
-      <c r="D4" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="E4" s="9" t="s">
+      <c r="F20" s="8" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="119" x14ac:dyDescent="0.2">
+      <c r="A21" s="15"/>
+      <c r="B21" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" s="11" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="16"/>
+      <c r="B22" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="D22" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="E22" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="F4" s="9"/>
-    </row>
-    <row r="5" spans="1:6" ht="51" x14ac:dyDescent="0.2">
-      <c r="A5" s="8"/>
-      <c r="B5" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="C5" s="9" t="s">
+      <c r="F22" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="D5" s="9" t="s">
-        <v>105</v>
-      </c>
-      <c r="E5" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="F5" s="9"/>
-    </row>
-    <row r="6" spans="1:6" ht="51" x14ac:dyDescent="0.2">
-      <c r="A6" s="8"/>
-      <c r="B6" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="D6" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="E6" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="F6" s="9" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="68" x14ac:dyDescent="0.2">
-      <c r="A7" s="8"/>
-      <c r="B7" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="D7" s="9" t="s">
-        <v>107</v>
-      </c>
-      <c r="E7" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="F7" s="9" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="34" x14ac:dyDescent="0.2">
-      <c r="A8" s="8"/>
-      <c r="B8" s="9" t="s">
-        <v>113</v>
-      </c>
-      <c r="C8" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" s="9" t="s">
-        <v>114</v>
-      </c>
-      <c r="E8" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="F8" s="9"/>
-    </row>
-    <row r="9" spans="1:6" ht="34" x14ac:dyDescent="0.2">
-      <c r="A9" s="8"/>
-      <c r="B9" s="9" t="s">
-        <v>115</v>
-      </c>
-      <c r="C9" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="E9" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="F9" s="9"/>
-    </row>
-    <row r="10" spans="1:6" ht="102" x14ac:dyDescent="0.2">
-      <c r="A10" s="8"/>
-      <c r="B10" s="9" t="s">
-        <v>110</v>
-      </c>
-      <c r="C10" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="D10" s="9" t="s">
-        <v>112</v>
-      </c>
-      <c r="E10" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="F10" s="9" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="85" x14ac:dyDescent="0.2">
-      <c r="A11" s="8"/>
-      <c r="B11" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="C11" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="D11" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="E11" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="F11" s="9" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="85" x14ac:dyDescent="0.2">
-      <c r="A12" s="8"/>
-      <c r="B12" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="C12" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="D12" s="9" t="s">
-        <v>109</v>
-      </c>
-      <c r="E12" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="F12" s="9" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="102" x14ac:dyDescent="0.2">
-      <c r="A13" s="8"/>
-      <c r="B13" s="9" t="s">
-        <v>117</v>
-      </c>
-      <c r="C13" s="9" t="s">
-        <v>118</v>
-      </c>
-      <c r="D13" s="9" t="s">
-        <v>119</v>
-      </c>
-      <c r="E13" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="F13" s="9" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="102" x14ac:dyDescent="0.2">
-      <c r="A14" s="8"/>
-      <c r="B14" s="9" t="s">
-        <v>120</v>
-      </c>
-      <c r="C14" s="9" t="s">
-        <v>121</v>
-      </c>
-      <c r="D14" s="9" t="s">
-        <v>122</v>
-      </c>
-      <c r="E14" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="F14" s="9" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="68" x14ac:dyDescent="0.2">
-      <c r="A15" s="8"/>
-      <c r="B15" s="9" t="s">
-        <v>123</v>
-      </c>
-      <c r="C15" s="9" t="s">
-        <v>124</v>
-      </c>
-      <c r="D15" s="9" t="s">
+    </row>
+    <row r="23" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+      <c r="A23" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C23" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="E15" s="9" t="s">
-        <v>125</v>
-      </c>
-      <c r="F15" s="9" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="85" x14ac:dyDescent="0.2">
-      <c r="A16" s="8"/>
-      <c r="B16" s="9" t="s">
-        <v>126</v>
-      </c>
-      <c r="C16" s="9" t="s">
-        <v>127</v>
-      </c>
-      <c r="D16" s="9" t="s">
-        <v>128</v>
-      </c>
-      <c r="E16" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="F16" s="9" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="51" x14ac:dyDescent="0.2">
-      <c r="A17" s="8"/>
-      <c r="B17" s="9" t="s">
-        <v>129</v>
-      </c>
-      <c r="C17" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="D17" s="9" t="s">
-        <v>131</v>
-      </c>
-      <c r="E17" s="9" t="s">
-        <v>130</v>
-      </c>
-      <c r="F17" s="9"/>
-    </row>
-    <row r="18" spans="1:6" ht="51" x14ac:dyDescent="0.2">
-      <c r="A18" s="8"/>
-      <c r="B18" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="C18" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="D18" s="9" t="s">
-        <v>132</v>
-      </c>
-      <c r="E18" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="F18" s="9"/>
-    </row>
-    <row r="19" spans="1:6" ht="51" x14ac:dyDescent="0.2">
-      <c r="A19" s="8"/>
-      <c r="B19" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="9" t="s">
-        <v>134</v>
-      </c>
-      <c r="D19" s="9" t="s">
-        <v>133</v>
-      </c>
-      <c r="E19" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="F19" s="9" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A20" s="8"/>
-      <c r="B20" s="9" t="s">
-        <v>135</v>
-      </c>
-      <c r="C20" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="D20" s="9" t="s">
-        <v>136</v>
-      </c>
-      <c r="E20" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="F20" s="10" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="119" x14ac:dyDescent="0.2">
-      <c r="A21" s="8"/>
-      <c r="B21" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C21" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="D21" s="9" t="s">
+      <c r="D23" s="2" t="s">
         <v>138</v>
-      </c>
-      <c r="E21" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="F21" s="9" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" s="14" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="11"/>
-      <c r="B22" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="C22" s="12" t="s">
-        <v>72</v>
-      </c>
-      <c r="D22" s="12" t="s">
-        <v>139</v>
-      </c>
-      <c r="E22" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="F22" s="13" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" ht="51" x14ac:dyDescent="0.2">
-      <c r="A23" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>142</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="34" x14ac:dyDescent="0.2">
-      <c r="A24" s="8"/>
-      <c r="B24" s="9" t="s">
-        <v>113</v>
-      </c>
-      <c r="C24" s="9" t="s">
+      <c r="A24" s="15"/>
+      <c r="B24" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="C24" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D24" s="9" t="s">
-        <v>114</v>
-      </c>
-      <c r="E24" s="9" t="s">
+      <c r="D24" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="E24" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="F24" s="9"/>
+      <c r="F24" s="7"/>
     </row>
     <row r="25" spans="1:6" ht="34" x14ac:dyDescent="0.2">
-      <c r="A25" s="8"/>
-      <c r="B25" s="9" t="s">
-        <v>115</v>
-      </c>
-      <c r="C25" s="9" t="s">
+      <c r="A25" s="15"/>
+      <c r="B25" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="C25" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D25" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="E25" s="9" t="s">
+      <c r="D25" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="E25" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="F25" s="9"/>
+      <c r="F25" s="7"/>
     </row>
     <row r="26" spans="1:6" ht="34" x14ac:dyDescent="0.2">
-      <c r="A26" s="8"/>
+      <c r="A26" s="15"/>
       <c r="B26" s="2" t="s">
         <v>29</v>
       </c>
@@ -1752,201 +1722,201 @@
         <v>24</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="E26" s="3" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="34" x14ac:dyDescent="0.2">
-      <c r="A27" s="8"/>
+      <c r="A27" s="15"/>
       <c r="B27" s="2" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="E27" s="3" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="102" x14ac:dyDescent="0.2">
-      <c r="A28" s="8"/>
-      <c r="B28" s="9" t="s">
-        <v>110</v>
-      </c>
-      <c r="C28" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="D28" s="9" t="s">
-        <v>112</v>
-      </c>
-      <c r="E28" s="9" t="s">
+      <c r="A28" s="15"/>
+      <c r="B28" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="D28" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="E28" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="F28" s="9" t="s">
-        <v>93</v>
+      <c r="F28" s="7" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="85" x14ac:dyDescent="0.2">
-      <c r="A29" s="8"/>
-      <c r="B29" s="9" t="s">
-        <v>146</v>
-      </c>
-      <c r="C29" s="9" t="s">
-        <v>148</v>
-      </c>
-      <c r="D29" s="9" t="s">
-        <v>147</v>
-      </c>
-      <c r="E29" s="9" t="s">
+      <c r="A29" s="15"/>
+      <c r="B29" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="D29" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="E29" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="F29" s="9" t="s">
-        <v>149</v>
+      <c r="F29" s="7" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="34" x14ac:dyDescent="0.2">
-      <c r="A30" s="8"/>
+      <c r="A30" s="15"/>
       <c r="B30" s="2" t="s">
         <v>30</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>33</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" s="16" customFormat="1" ht="34" x14ac:dyDescent="0.2">
-      <c r="A31" s="8"/>
-      <c r="B31" s="9" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" s="12" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A31" s="15"/>
+      <c r="B31" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="C31" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="D31" s="9" t="s">
+      <c r="C31" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="D31" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" s="11" customFormat="1" ht="103" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="16"/>
+      <c r="B32" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="C32" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="D32" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="E32" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="F32" s="9" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+      <c r="A33" s="15" t="s">
         <v>151</v>
       </c>
-      <c r="E31" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="F31" s="9" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" s="14" customFormat="1" ht="103" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="11"/>
-      <c r="B32" s="12" t="s">
-        <v>152</v>
-      </c>
-      <c r="C32" s="12" t="s">
-        <v>153</v>
-      </c>
-      <c r="D32" s="12" t="s">
-        <v>154</v>
-      </c>
-      <c r="E32" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="F32" s="12" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" ht="51" x14ac:dyDescent="0.2">
-      <c r="A33" s="8" t="s">
-        <v>155</v>
-      </c>
       <c r="B33" s="2" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="34" x14ac:dyDescent="0.2">
-      <c r="A34" s="8"/>
+      <c r="A34" s="15"/>
       <c r="B34" s="2" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="85" x14ac:dyDescent="0.2">
-      <c r="A35" s="8"/>
+      <c r="A35" s="15"/>
       <c r="B35" s="2" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="E35" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="34" x14ac:dyDescent="0.2">
-      <c r="A36" s="8"/>
-      <c r="B36" s="9" t="s">
-        <v>113</v>
-      </c>
-      <c r="C36" s="9" t="s">
+      <c r="A36" s="15"/>
+      <c r="B36" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="C36" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D36" s="9" t="s">
-        <v>114</v>
-      </c>
-      <c r="E36" s="9" t="s">
+      <c r="D36" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="E36" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="F36" s="9"/>
+      <c r="F36" s="7"/>
     </row>
     <row r="37" spans="1:6" ht="34" x14ac:dyDescent="0.2">
-      <c r="A37" s="8"/>
-      <c r="B37" s="9" t="s">
-        <v>115</v>
-      </c>
-      <c r="C37" s="9" t="s">
+      <c r="A37" s="15"/>
+      <c r="B37" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="C37" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D37" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="E37" s="9" t="s">
+      <c r="D37" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="E37" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="F37" s="9"/>
+      <c r="F37" s="7"/>
     </row>
     <row r="38" spans="1:6" ht="34" x14ac:dyDescent="0.2">
-      <c r="A38" s="8"/>
+      <c r="A38" s="15"/>
       <c r="B38" s="2" t="s">
         <v>29</v>
       </c>
@@ -1954,1172 +1924,1152 @@
         <v>24</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="E38" s="3" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="34" x14ac:dyDescent="0.2">
-      <c r="A39" s="8"/>
+      <c r="A39" s="15"/>
       <c r="B39" s="2" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="E39" s="3" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="102" x14ac:dyDescent="0.2">
-      <c r="A40" s="8"/>
-      <c r="B40" s="9" t="s">
-        <v>110</v>
-      </c>
-      <c r="C40" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="D40" s="9" t="s">
-        <v>112</v>
-      </c>
-      <c r="E40" s="9" t="s">
+      <c r="A40" s="15"/>
+      <c r="B40" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="C40" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="D40" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="E40" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="F40" s="9" t="s">
-        <v>93</v>
+      <c r="F40" s="7" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="85" x14ac:dyDescent="0.2">
-      <c r="A41" s="8"/>
-      <c r="B41" s="9" t="s">
-        <v>146</v>
-      </c>
-      <c r="C41" s="9" t="s">
-        <v>148</v>
-      </c>
-      <c r="D41" s="9" t="s">
-        <v>147</v>
-      </c>
-      <c r="E41" s="9" t="s">
+      <c r="A41" s="15"/>
+      <c r="B41" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="C41" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="D41" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="E41" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="F41" s="9" t="s">
-        <v>149</v>
+      <c r="F41" s="7" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="85" x14ac:dyDescent="0.2">
-      <c r="A42" s="8"/>
+      <c r="A42" s="15"/>
       <c r="B42" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="E42" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="C42" s="2" t="s">
+      <c r="F42" s="2" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" ht="85" x14ac:dyDescent="0.2">
+      <c r="A43" s="15"/>
+      <c r="B43" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="D43" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="D42" s="2" t="s">
+      <c r="E43" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A44" s="15"/>
+      <c r="B44" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="D44" s="2" t="s">
         <v>164</v>
-      </c>
-      <c r="E42" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="F42" s="2" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" ht="85" x14ac:dyDescent="0.2">
-      <c r="A43" s="8"/>
-      <c r="B43" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="E43" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="F43" s="2" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A44" s="8"/>
-      <c r="B44" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="D44" s="2" t="s">
-        <v>168</v>
       </c>
       <c r="E44" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="34" x14ac:dyDescent="0.2">
-      <c r="A45" s="8"/>
+    <row r="45" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+      <c r="A45" s="15"/>
       <c r="B45" s="2" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" s="14" customFormat="1" ht="35" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="11"/>
-      <c r="B46" s="12" t="s">
-        <v>170</v>
-      </c>
-      <c r="C46" s="12" t="s">
-        <v>86</v>
-      </c>
-      <c r="D46" s="12" t="s">
-        <v>172</v>
-      </c>
-      <c r="E46" s="12" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" s="11" customFormat="1" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="16"/>
+      <c r="B46" s="9" t="s">
+        <v>166</v>
+      </c>
+      <c r="C46" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="D46" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="E46" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="F46" s="12"/>
-    </row>
-    <row r="47" spans="1:6" ht="119" x14ac:dyDescent="0.2">
-      <c r="A47" s="15" t="s">
-        <v>171</v>
-      </c>
-      <c r="B47" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="D47" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="E47" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="F47" s="2" t="s">
-        <v>96</v>
-      </c>
+      <c r="F46" s="9"/>
+    </row>
+    <row r="47" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="A47" s="15"/>
+      <c r="B47" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="C47" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D47" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="E47" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F47" s="7"/>
     </row>
     <row r="48" spans="1:6" ht="34" x14ac:dyDescent="0.2">
-      <c r="A48" s="8"/>
-      <c r="B48" s="9" t="s">
-        <v>113</v>
-      </c>
-      <c r="C48" s="9" t="s">
+      <c r="A48" s="15"/>
+      <c r="B48" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="C48" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D48" s="9" t="s">
-        <v>114</v>
-      </c>
-      <c r="E48" s="9" t="s">
+      <c r="D48" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="E48" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="F48" s="9"/>
+      <c r="F48" s="7"/>
     </row>
     <row r="49" spans="1:6" ht="34" x14ac:dyDescent="0.2">
-      <c r="A49" s="8"/>
-      <c r="B49" s="9" t="s">
-        <v>115</v>
-      </c>
-      <c r="C49" s="9" t="s">
+      <c r="A49" s="15"/>
+      <c r="B49" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C49" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D49" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="E49" s="9" t="s">
+      <c r="D49" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E49" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="F49" s="9"/>
     </row>
     <row r="50" spans="1:6" ht="34" x14ac:dyDescent="0.2">
-      <c r="A50" s="8"/>
+      <c r="A50" s="15"/>
       <c r="B50" s="2" t="s">
-        <v>29</v>
+        <v>139</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="E50" s="3" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="51" spans="1:6" ht="34" x14ac:dyDescent="0.2">
-      <c r="A51" s="8"/>
-      <c r="B51" s="2" t="s">
+    <row r="51" spans="1:6" ht="102" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="15"/>
+      <c r="B51" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="C51" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="D51" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="E51" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F51" s="7" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" ht="85" x14ac:dyDescent="0.2">
+      <c r="A52" s="15"/>
+      <c r="B52" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="C52" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="D52" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="C51" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D51" s="2" t="s">
+      <c r="E52" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F52" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="E51" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" ht="102" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="8"/>
-      <c r="B52" s="9" t="s">
-        <v>110</v>
-      </c>
-      <c r="C52" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="D52" s="9" t="s">
-        <v>112</v>
-      </c>
-      <c r="E52" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="F52" s="9" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" ht="85" x14ac:dyDescent="0.2">
-      <c r="A53" s="8"/>
-      <c r="B53" s="9" t="s">
-        <v>146</v>
-      </c>
-      <c r="C53" s="9" t="s">
-        <v>148</v>
-      </c>
-      <c r="D53" s="9" t="s">
-        <v>147</v>
-      </c>
-      <c r="E53" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="F53" s="9" t="s">
-        <v>149</v>
+    </row>
+    <row r="53" spans="1:6" ht="119" x14ac:dyDescent="0.2">
+      <c r="A53" s="15"/>
+      <c r="B53" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="E53" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="F53" s="2" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="54" spans="1:6" ht="119" x14ac:dyDescent="0.2">
-      <c r="A54" s="8"/>
+      <c r="A54" s="15"/>
       <c r="B54" s="2" t="s">
-        <v>82</v>
+        <v>35</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>175</v>
+        <v>182</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="E54" s="6" t="s">
-        <v>174</v>
+        <v>171</v>
+      </c>
+      <c r="E54" s="5" t="s">
+        <v>169</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
     </row>
     <row r="55" spans="1:6" ht="119" x14ac:dyDescent="0.2">
-      <c r="A55" s="8"/>
+      <c r="A55" s="15"/>
       <c r="B55" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="E55" s="6" t="s">
-        <v>174</v>
+        <v>172</v>
+      </c>
+      <c r="E55" s="5" t="s">
+        <v>169</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
     </row>
     <row r="56" spans="1:6" ht="119" x14ac:dyDescent="0.2">
-      <c r="A56" s="8"/>
+      <c r="A56" s="15"/>
       <c r="B56" s="2" t="s">
         <v>38</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="D56" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="E56" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="F56" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" ht="119" x14ac:dyDescent="0.2">
+      <c r="A57" s="15"/>
+      <c r="B57" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="E57" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="F57" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" ht="119" x14ac:dyDescent="0.2">
+      <c r="A58" s="15"/>
+      <c r="B58" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="E58" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="F58" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" ht="119" x14ac:dyDescent="0.2">
+      <c r="A59" s="15"/>
+      <c r="B59" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="D59" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="E56" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="F56" s="2" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" ht="119" x14ac:dyDescent="0.2">
-      <c r="A57" s="8"/>
-      <c r="B57" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C57" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="D57" s="2" t="s">
+      <c r="E59" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="F59" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="A60" s="15"/>
+      <c r="B60" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="E57" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="F57" s="2" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" ht="119" x14ac:dyDescent="0.2">
-      <c r="A58" s="8"/>
-      <c r="B58" s="2" t="s">
+      <c r="C60" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="E60" s="5" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="A61" s="15"/>
+      <c r="B61" s="2" t="s">
         <v>179</v>
-      </c>
-      <c r="C58" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="D58" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="E58" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="F58" s="2" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" ht="119" x14ac:dyDescent="0.2">
-      <c r="A59" s="8"/>
-      <c r="B59" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C59" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="D59" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="E59" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="F59" s="2" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" ht="119" x14ac:dyDescent="0.2">
-      <c r="A60" s="8"/>
-      <c r="B60" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C60" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="D60" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="E60" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="F60" s="2" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" ht="34" x14ac:dyDescent="0.2">
-      <c r="A61" s="8"/>
-      <c r="B61" s="2" t="s">
-        <v>183</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D61" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="E61" s="5" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" ht="119" x14ac:dyDescent="0.2">
+      <c r="A62" s="15"/>
+      <c r="B62" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="E62" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="F62" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" ht="119" x14ac:dyDescent="0.2">
+      <c r="A63" s="15"/>
+      <c r="B63" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="E63" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="F63" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" ht="85" x14ac:dyDescent="0.2">
+      <c r="A64" s="15"/>
+      <c r="B64" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="E61" s="6" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" ht="34" x14ac:dyDescent="0.2">
-      <c r="A62" s="8"/>
-      <c r="B62" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="C62" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D62" s="2" t="s">
+      <c r="C64" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="D64" s="4" t="s">
         <v>192</v>
       </c>
-      <c r="E62" s="6" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" ht="119" x14ac:dyDescent="0.2">
-      <c r="A63" s="8"/>
-      <c r="B63" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="C63" s="2" t="s">
+      <c r="E64" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" ht="102" x14ac:dyDescent="0.2">
+      <c r="A65" s="15"/>
+      <c r="B65" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="D63" s="2" t="s">
+      <c r="C65" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="E65" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="F65" s="2" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="A66" s="15"/>
+      <c r="B66" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="E63" s="6" t="s">
-        <v>187</v>
-      </c>
-      <c r="F63" s="2" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" ht="119" x14ac:dyDescent="0.2">
-      <c r="A64" s="8"/>
-      <c r="B64" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="C64" s="2" t="s">
+      <c r="C66" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="E66" s="5" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" ht="119" x14ac:dyDescent="0.2">
+      <c r="A67" s="15"/>
+      <c r="B67" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="D64" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="E64" s="6" t="s">
-        <v>187</v>
-      </c>
-      <c r="F64" s="2" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" ht="85" x14ac:dyDescent="0.2">
-      <c r="A65" s="8"/>
-      <c r="B65" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="C65" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="D65" s="5" t="s">
-        <v>198</v>
-      </c>
-      <c r="E65" s="6" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" ht="102" x14ac:dyDescent="0.2">
-      <c r="A66" s="8"/>
-      <c r="B66" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="C66" s="2" t="s">
+      <c r="C67" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="E67" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="F67" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" ht="119" x14ac:dyDescent="0.2">
+      <c r="A68" s="15"/>
+      <c r="B68" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="D66" s="2" t="s">
+      <c r="C68" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="D68" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="E66" s="6" t="s">
+      <c r="E68" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="F68" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" ht="119" x14ac:dyDescent="0.2">
+      <c r="A69" s="15"/>
+      <c r="B69" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C69" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="F66" s="2" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" ht="34" x14ac:dyDescent="0.2">
-      <c r="A67" s="8"/>
-      <c r="B67" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="C67" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="D67" s="2" t="s">
+      <c r="D69" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="E67" s="6" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" ht="119" x14ac:dyDescent="0.2">
-      <c r="A68" s="8"/>
-      <c r="B68" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="C68" s="2" t="s">
+      <c r="E69" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="F69" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" ht="119" x14ac:dyDescent="0.2">
+      <c r="A70" s="15"/>
+      <c r="B70" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="E70" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="F70" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" ht="119" x14ac:dyDescent="0.2">
+      <c r="A71" s="15"/>
+      <c r="B71" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C71" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="D68" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="E68" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="F68" s="2" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" ht="119" x14ac:dyDescent="0.2">
-      <c r="A69" s="8"/>
-      <c r="B69" s="2" t="s">
+      <c r="D71" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="C69" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="D69" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="E69" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="F69" s="2" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" ht="119" x14ac:dyDescent="0.2">
-      <c r="A70" s="8"/>
-      <c r="B70" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C70" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="D70" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="E70" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="F70" s="2" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" ht="119" x14ac:dyDescent="0.2">
-      <c r="A71" s="8"/>
-      <c r="B71" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C71" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="D71" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="E71" s="6" t="s">
-        <v>174</v>
+      <c r="E71" s="5" t="s">
+        <v>169</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
     </row>
     <row r="72" spans="1:6" ht="119" x14ac:dyDescent="0.2">
-      <c r="A72" s="8"/>
+      <c r="A72" s="15"/>
       <c r="B72" s="2" t="s">
         <v>42</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="E72" s="6" t="s">
-        <v>174</v>
+        <v>212</v>
+      </c>
+      <c r="E72" s="5" t="s">
+        <v>169</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
     </row>
     <row r="73" spans="1:6" ht="119" x14ac:dyDescent="0.2">
-      <c r="A73" s="8"/>
+      <c r="A73" s="15"/>
       <c r="B73" s="2" t="s">
         <v>43</v>
       </c>
       <c r="C73" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="E73" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="F73" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" ht="119" x14ac:dyDescent="0.2">
+      <c r="A74" s="15"/>
+      <c r="B74" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C74" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="D74" s="3" t="s">
         <v>217</v>
       </c>
-      <c r="D73" s="2" t="s">
+      <c r="E74" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="F74" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" ht="119" x14ac:dyDescent="0.2">
+      <c r="A75" s="15"/>
+      <c r="B75" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="D75" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="E75" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="F75" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" ht="119" x14ac:dyDescent="0.2">
+      <c r="A76" s="15"/>
+      <c r="B76" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C76" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="E73" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="F73" s="2" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" ht="119" x14ac:dyDescent="0.2">
-      <c r="A74" s="8"/>
-      <c r="B74" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C74" s="2" t="s">
+      <c r="D76" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="D74" s="2" t="s">
+      <c r="E76" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="F76" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" ht="119" x14ac:dyDescent="0.2">
+      <c r="A77" s="15"/>
+      <c r="B77" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="D77" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="E74" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="F74" s="2" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" ht="119" x14ac:dyDescent="0.2">
-      <c r="A75" s="8"/>
-      <c r="B75" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="C75" s="3" t="s">
-        <v>221</v>
-      </c>
-      <c r="D75" s="3" t="s">
+      <c r="E77" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="F77" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" ht="119" x14ac:dyDescent="0.2">
+      <c r="A78" s="15"/>
+      <c r="B78" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="C78" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="E75" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="F75" s="2" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" ht="119" x14ac:dyDescent="0.2">
-      <c r="A76" s="8"/>
-      <c r="B76" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C76" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="D76" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="E76" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="F76" s="2" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6" ht="119" x14ac:dyDescent="0.2">
-      <c r="A77" s="8"/>
-      <c r="B77" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C77" s="2" t="s">
+      <c r="D78" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="E78" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="F78" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" ht="119" x14ac:dyDescent="0.2">
+      <c r="A79" s="15"/>
+      <c r="B79" s="3" t="s">
         <v>224</v>
       </c>
-      <c r="D77" s="2" t="s">
+      <c r="C79" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="D79" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="E79" s="13" t="s">
+        <v>169</v>
+      </c>
+      <c r="F79" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" ht="119" x14ac:dyDescent="0.2">
+      <c r="A80" s="15"/>
+      <c r="B80" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C80" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="E77" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="F77" s="2" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" ht="119" x14ac:dyDescent="0.2">
-      <c r="A78" s="8"/>
-      <c r="B78" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C78" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="D78" s="2" t="s">
+      <c r="D80" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="E78" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="F78" s="2" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6" ht="119" x14ac:dyDescent="0.2">
-      <c r="A79" s="8"/>
-      <c r="B79" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="C79" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="D79" s="2" t="s">
-        <v>233</v>
-      </c>
-      <c r="E79" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="F79" s="2" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6" ht="119" x14ac:dyDescent="0.2">
-      <c r="A80" s="8"/>
-      <c r="B80" s="3" t="s">
-        <v>230</v>
-      </c>
-      <c r="C80" s="3" t="s">
-        <v>229</v>
-      </c>
-      <c r="D80" s="3" t="s">
-        <v>234</v>
-      </c>
-      <c r="E80" s="17" t="s">
-        <v>174</v>
+      <c r="E80" s="13" t="s">
+        <v>169</v>
       </c>
       <c r="F80" s="3" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
     </row>
     <row r="81" spans="1:6" ht="119" x14ac:dyDescent="0.2">
-      <c r="A81" s="8"/>
+      <c r="A81" s="15"/>
       <c r="B81" s="2" t="s">
         <v>49</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="E81" s="17" t="s">
-        <v>174</v>
+        <v>229</v>
+      </c>
+      <c r="E81" s="13" t="s">
+        <v>169</v>
       </c>
       <c r="F81" s="3" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
     </row>
     <row r="82" spans="1:6" ht="119" x14ac:dyDescent="0.2">
-      <c r="A82" s="8"/>
+      <c r="A82" s="15"/>
       <c r="B82" s="2" t="s">
         <v>50</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>236</v>
+        <v>223</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>235</v>
-      </c>
-      <c r="E82" s="17" t="s">
-        <v>174</v>
+        <v>231</v>
+      </c>
+      <c r="E82" s="13" t="s">
+        <v>169</v>
       </c>
       <c r="F82" s="3" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
     </row>
     <row r="83" spans="1:6" ht="119" x14ac:dyDescent="0.2">
-      <c r="A83" s="8"/>
+      <c r="A83" s="15"/>
       <c r="B83" s="2" t="s">
         <v>51</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="E83" s="17" t="s">
-        <v>174</v>
+        <v>232</v>
+      </c>
+      <c r="E83" s="13" t="s">
+        <v>169</v>
       </c>
       <c r="F83" s="3" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
     </row>
     <row r="84" spans="1:6" ht="119" x14ac:dyDescent="0.2">
-      <c r="A84" s="8"/>
+      <c r="A84" s="15"/>
       <c r="B84" s="2" t="s">
         <v>52</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>238</v>
-      </c>
-      <c r="E84" s="17" t="s">
-        <v>174</v>
+        <v>234</v>
+      </c>
+      <c r="E84" s="13" t="s">
+        <v>169</v>
       </c>
       <c r="F84" s="3" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
     </row>
     <row r="85" spans="1:6" ht="119" x14ac:dyDescent="0.2">
-      <c r="A85" s="8"/>
+      <c r="A85" s="15"/>
       <c r="B85" s="2" t="s">
         <v>53</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="E85" s="17" t="s">
-        <v>174</v>
+        <v>237</v>
+      </c>
+      <c r="E85" s="13" t="s">
+        <v>169</v>
       </c>
       <c r="F85" s="3" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
     </row>
     <row r="86" spans="1:6" ht="119" x14ac:dyDescent="0.2">
-      <c r="A86" s="8"/>
+      <c r="A86" s="15"/>
       <c r="B86" s="2" t="s">
         <v>54</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>239</v>
+        <v>223</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>243</v>
-      </c>
-      <c r="E86" s="17" t="s">
-        <v>174</v>
+        <v>235</v>
+      </c>
+      <c r="E86" s="13" t="s">
+        <v>169</v>
       </c>
       <c r="F86" s="3" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
     </row>
     <row r="87" spans="1:6" ht="119" x14ac:dyDescent="0.2">
-      <c r="A87" s="8"/>
+      <c r="A87" s="15"/>
       <c r="B87" s="2" t="s">
         <v>55</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="E87" s="17" t="s">
-        <v>174</v>
+        <v>236</v>
+      </c>
+      <c r="E87" s="13" t="s">
+        <v>169</v>
       </c>
       <c r="F87" s="3" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
     </row>
     <row r="88" spans="1:6" ht="119" x14ac:dyDescent="0.2">
-      <c r="A88" s="8"/>
+      <c r="A88" s="15"/>
       <c r="B88" s="2" t="s">
         <v>56</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>229</v>
+        <v>238</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>242</v>
-      </c>
-      <c r="E88" s="17" t="s">
-        <v>174</v>
+        <v>239</v>
+      </c>
+      <c r="E88" s="13" t="s">
+        <v>169</v>
       </c>
       <c r="F88" s="3" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
     </row>
     <row r="89" spans="1:6" ht="119" x14ac:dyDescent="0.2">
-      <c r="A89" s="8"/>
+      <c r="A89" s="15"/>
       <c r="B89" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C89" s="2" t="s">
-        <v>244</v>
-      </c>
-      <c r="D89" s="2" t="s">
-        <v>245</v>
-      </c>
-      <c r="E89" s="17" t="s">
-        <v>174</v>
+      <c r="C89" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="D89" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="E89" s="13" t="s">
+        <v>169</v>
       </c>
       <c r="F89" s="3" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
     </row>
     <row r="90" spans="1:6" ht="119" x14ac:dyDescent="0.2">
-      <c r="A90" s="8"/>
+      <c r="A90" s="15"/>
       <c r="B90" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="C90" s="3" t="s">
-        <v>246</v>
-      </c>
-      <c r="D90" s="3" t="s">
-        <v>247</v>
-      </c>
-      <c r="E90" s="17" t="s">
-        <v>174</v>
+      <c r="C90" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="D90" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="E90" s="13" t="s">
+        <v>169</v>
       </c>
       <c r="F90" s="3" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
     </row>
     <row r="91" spans="1:6" ht="119" x14ac:dyDescent="0.2">
-      <c r="A91" s="8"/>
+      <c r="A91" s="15"/>
       <c r="B91" s="2" t="s">
         <v>59</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>249</v>
-      </c>
-      <c r="E91" s="17" t="s">
-        <v>174</v>
+        <v>244</v>
+      </c>
+      <c r="E91" s="13" t="s">
+        <v>169</v>
       </c>
       <c r="F91" s="3" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
     </row>
     <row r="92" spans="1:6" ht="119" x14ac:dyDescent="0.2">
-      <c r="A92" s="8"/>
+      <c r="A92" s="15"/>
       <c r="B92" s="2" t="s">
         <v>60</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>250</v>
-      </c>
-      <c r="E92" s="17" t="s">
-        <v>174</v>
+        <v>246</v>
+      </c>
+      <c r="E92" s="13" t="s">
+        <v>169</v>
       </c>
       <c r="F92" s="3" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
     </row>
     <row r="93" spans="1:6" ht="119" x14ac:dyDescent="0.2">
-      <c r="A93" s="8"/>
+      <c r="A93" s="15"/>
       <c r="B93" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="C93" s="2" t="s">
-        <v>251</v>
-      </c>
-      <c r="D93" s="2" t="s">
-        <v>252</v>
-      </c>
-      <c r="E93" s="17" t="s">
-        <v>174</v>
+      <c r="C93" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="D93" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="E93" s="13" t="s">
+        <v>169</v>
       </c>
       <c r="F93" s="3" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
     </row>
     <row r="94" spans="1:6" ht="119" x14ac:dyDescent="0.2">
-      <c r="A94" s="8"/>
+      <c r="A94" s="15"/>
       <c r="B94" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="C94" s="3" t="s">
-        <v>251</v>
-      </c>
-      <c r="D94" s="3" t="s">
-        <v>253</v>
-      </c>
-      <c r="E94" s="17" t="s">
-        <v>174</v>
+      <c r="C94" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="D94" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="E94" s="13" t="s">
+        <v>169</v>
       </c>
       <c r="F94" s="3" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
     </row>
     <row r="95" spans="1:6" ht="119" x14ac:dyDescent="0.2">
-      <c r="A95" s="8"/>
+      <c r="A95" s="15"/>
       <c r="B95" s="2" t="s">
         <v>63</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>255</v>
-      </c>
-      <c r="E95" s="17" t="s">
-        <v>174</v>
+        <v>251</v>
+      </c>
+      <c r="E95" s="13" t="s">
+        <v>169</v>
       </c>
       <c r="F95" s="3" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
     </row>
     <row r="96" spans="1:6" ht="119" x14ac:dyDescent="0.2">
-      <c r="A96" s="8"/>
+      <c r="A96" s="15"/>
       <c r="B96" s="2" t="s">
         <v>64</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>257</v>
-      </c>
-      <c r="E96" s="17" t="s">
-        <v>174</v>
+        <v>253</v>
+      </c>
+      <c r="E96" s="13" t="s">
+        <v>169</v>
       </c>
       <c r="F96" s="3" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
     </row>
     <row r="97" spans="1:6" ht="119" x14ac:dyDescent="0.2">
-      <c r="A97" s="8"/>
+      <c r="A97" s="15"/>
       <c r="B97" s="2" t="s">
         <v>65</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>259</v>
-      </c>
-      <c r="E97" s="17" t="s">
-        <v>174</v>
+        <v>255</v>
+      </c>
+      <c r="E97" s="13" t="s">
+        <v>169</v>
       </c>
       <c r="F97" s="3" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
     </row>
     <row r="98" spans="1:6" ht="119" x14ac:dyDescent="0.2">
-      <c r="A98" s="8"/>
+      <c r="A98" s="15"/>
       <c r="B98" s="2" t="s">
         <v>66</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>261</v>
-      </c>
-      <c r="E98" s="17" t="s">
-        <v>174</v>
+        <v>258</v>
+      </c>
+      <c r="E98" s="13" t="s">
+        <v>169</v>
       </c>
       <c r="F98" s="3" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
     </row>
     <row r="99" spans="1:6" ht="119" x14ac:dyDescent="0.2">
-      <c r="A99" s="8"/>
+      <c r="A99" s="15"/>
       <c r="B99" s="2" t="s">
         <v>67</v>
       </c>
       <c r="C99" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="D99" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="E99" s="13" t="s">
+        <v>169</v>
+      </c>
+      <c r="F99" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" s="11" customFormat="1" ht="120" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A100" s="16"/>
+      <c r="B100" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="C100" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D100" s="9" t="s">
+        <v>259</v>
+      </c>
+      <c r="E100" s="14" t="s">
+        <v>169</v>
+      </c>
+      <c r="F100" s="10" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="A101" s="17" t="s">
         <v>260</v>
       </c>
-      <c r="D99" s="2" t="s">
+      <c r="B101" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D101" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="E101" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" ht="119" x14ac:dyDescent="0.2">
+      <c r="A102" s="17"/>
+      <c r="B102" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C102" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="D102" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="E102" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F102" s="2" t="s">
         <v>264</v>
       </c>
-      <c r="E99" s="17" t="s">
-        <v>174</v>
-      </c>
-      <c r="F99" s="3" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6" ht="119" x14ac:dyDescent="0.2">
-      <c r="A100" s="8"/>
-      <c r="B100" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="C100" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="D100" s="2" t="s">
-        <v>263</v>
-      </c>
-      <c r="E100" s="17" t="s">
-        <v>174</v>
-      </c>
-      <c r="F100" s="3" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="101" spans="1:6" s="14" customFormat="1" ht="120" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="11"/>
-      <c r="B101" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="C101" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="D101" s="12" t="s">
-        <v>265</v>
-      </c>
-      <c r="E101" s="18" t="s">
-        <v>174</v>
-      </c>
-      <c r="F101" s="13" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6" ht="34" x14ac:dyDescent="0.2">
-      <c r="A102" s="4" t="s">
-        <v>266</v>
-      </c>
-      <c r="B102" s="2" t="s">
+    </row>
+    <row r="103" spans="1:6" ht="102" x14ac:dyDescent="0.2">
+      <c r="A103" s="17"/>
+      <c r="B103" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C103" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D103" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="C102" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="D102" s="2" t="s">
-        <v>267</v>
-      </c>
-      <c r="E102" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6" ht="119" x14ac:dyDescent="0.2">
-      <c r="A103" s="4"/>
-      <c r="B103" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="C103" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="D103" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="E103" s="6" t="s">
-        <v>16</v>
+      <c r="E103" s="2" t="s">
+        <v>85</v>
       </c>
       <c r="F103" s="2" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6" ht="102" x14ac:dyDescent="0.2">
-      <c r="A104" s="4"/>
-      <c r="B104" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="C104" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="D104" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="E104" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="F104" s="2" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="A47:A101"/>
-    <mergeCell ref="A102:A104"/>
+    <mergeCell ref="A47:A100"/>
+    <mergeCell ref="A101:A103"/>
     <mergeCell ref="A2:A22"/>
     <mergeCell ref="A23:A32"/>
     <mergeCell ref="A33:A46"/>

--- a/docs/scATACpipe_module_references.xlsx
+++ b/docs/scATACpipe_module_references.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kaihu/Projects/workflow/scATACpipe/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E542167-D7FA-E14A-8045-4FFD97C8D24B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42217B3B-2936-CE41-A648-6AF1E4CED802}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29140" yWindow="-1320" windowWidth="25680" windowHeight="16300" xr2:uid="{D5566E01-952C-494C-8CCC-37924E7B856D}"/>
+    <workbookView xWindow="540" yWindow="500" windowWidth="33620" windowHeight="16300" xr2:uid="{D5566E01-952C-494C-8CCC-37924E7B856D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="490" uniqueCount="265">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="490" uniqueCount="264">
   <si>
     <t>Module</t>
   </si>
@@ -87,9 +87,6 @@
     <t>hukai916/sinto_xenial:0.1</t>
   </si>
   <si>
-    <t>hukai916/r_sc_atac:0.1</t>
-  </si>
-  <si>
     <t>custom R script</t>
   </si>
   <si>
@@ -412,9 +409,6 @@
   </si>
   <si>
     <t>GET_VALID_BARCODE</t>
-  </si>
-  <si>
-    <t>hukai916/r_util:0.2</t>
   </si>
   <si>
     <t>Determine valid barcodes using "inflection point" method.</t>
@@ -830,6 +824,9 @@
   <si>
     <t>[7] Li, H., Handsaker, B., Wysoker, A., Fennell, T., Ruan, J., Homer, N., Marth, G., Abecasis, G., &amp; Durbin, R. (2009). The Sequence Alignment/Map format and SAMtools. Bioinformatics, 25(16), 2078–2079. https://doi.org/10.1093/bioinformatics/btp352
 [2] https://timoast.github.io/sinto/</t>
+  </si>
+  <si>
+    <t>hukai916/r_utils:0.1</t>
   </si>
 </sst>
 </file>
@@ -1263,8 +1260,8 @@
   <dimension ref="A1:F103"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="112" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A58" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E60" sqref="E60"/>
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B45" sqref="B45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1286,7 +1283,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D1" s="6" t="s">
         <v>2</v>
@@ -1306,63 +1303,63 @@
         <v>4</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E2" s="7" t="s">
         <v>6</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="68" x14ac:dyDescent="0.2">
       <c r="A3" s="15"/>
       <c r="B3" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="D3" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="C3" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>97</v>
-      </c>
       <c r="E3" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F3" s="7"/>
     </row>
     <row r="4" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A4" s="15"/>
       <c r="B4" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="D4" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="C4" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>99</v>
-      </c>
       <c r="E4" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F4" s="7"/>
     </row>
     <row r="5" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A5" s="15"/>
       <c r="B5" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="D5" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="C5" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>101</v>
-      </c>
       <c r="E5" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F5" s="7"/>
     </row>
@@ -1372,16 +1369,16 @@
         <v>8</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="68" x14ac:dyDescent="0.2">
@@ -1390,66 +1387,66 @@
         <v>11</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A8" s="15"/>
       <c r="B8" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="C8" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>110</v>
-      </c>
       <c r="E8" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F8" s="7"/>
     </row>
     <row r="9" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A9" s="15"/>
       <c r="B9" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="C9" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>112</v>
-      </c>
       <c r="E9" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F9" s="7"/>
     </row>
     <row r="10" spans="1:6" ht="102" x14ac:dyDescent="0.2">
       <c r="A10" s="15"/>
       <c r="B10" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="C10" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="D10" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="D10" s="7" t="s">
-        <v>108</v>
-      </c>
       <c r="E10" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="85" x14ac:dyDescent="0.2">
@@ -1458,16 +1455,16 @@
         <v>12</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="85" x14ac:dyDescent="0.2">
@@ -1476,103 +1473,103 @@
         <v>13</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="102" x14ac:dyDescent="0.2">
       <c r="A13" s="15"/>
       <c r="B13" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="C13" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="C13" s="7" t="s">
+      <c r="D13" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="D13" s="7" t="s">
-        <v>115</v>
-      </c>
       <c r="E13" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="102" x14ac:dyDescent="0.2">
       <c r="A14" s="15"/>
       <c r="B14" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="C14" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="C14" s="7" t="s">
+      <c r="D14" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="D14" s="7" t="s">
-        <v>118</v>
-      </c>
       <c r="E14" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="68" x14ac:dyDescent="0.2">
       <c r="A15" s="15"/>
       <c r="B15" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="C15" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="C15" s="7" t="s">
+      <c r="D15" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="E15" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="D15" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>121</v>
-      </c>
       <c r="F15" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="85" x14ac:dyDescent="0.2">
       <c r="A16" s="15"/>
       <c r="B16" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="C16" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="C16" s="7" t="s">
+      <c r="D16" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="D16" s="7" t="s">
-        <v>124</v>
-      </c>
       <c r="E16" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A17" s="15"/>
       <c r="B17" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D17" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="C17" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="D17" s="7" t="s">
-        <v>127</v>
-      </c>
       <c r="E17" s="7" t="s">
-        <v>126</v>
+        <v>263</v>
       </c>
       <c r="F17" s="7"/>
     </row>
@@ -1582,13 +1579,13 @@
         <v>9</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>17</v>
+        <v>263</v>
       </c>
       <c r="F18" s="7"/>
     </row>
@@ -1598,34 +1595,34 @@
         <v>10</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A20" s="15"/>
       <c r="B20" s="7" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F20" s="8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="119" x14ac:dyDescent="0.2">
@@ -1634,16 +1631,16 @@
         <v>14</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="22" spans="1:6" s="11" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -1652,1379 +1649,1379 @@
         <v>15</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E22" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F22" s="10" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A23" s="15" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B23" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="D23" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="C23" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>138</v>
-      </c>
       <c r="E23" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A24" s="15"/>
       <c r="B24" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D24" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="C24" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D24" s="7" t="s">
-        <v>110</v>
-      </c>
       <c r="E24" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F24" s="7"/>
     </row>
     <row r="25" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A25" s="15"/>
       <c r="B25" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D25" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="C25" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D25" s="7" t="s">
-        <v>112</v>
-      </c>
       <c r="E25" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F25" s="7"/>
     </row>
     <row r="26" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A26" s="15"/>
       <c r="B26" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A27" s="15"/>
       <c r="B27" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D27" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="C27" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>141</v>
-      </c>
       <c r="E27" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="102" x14ac:dyDescent="0.2">
       <c r="A28" s="15"/>
       <c r="B28" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="C28" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="C28" s="7" t="s">
+      <c r="D28" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="D28" s="7" t="s">
-        <v>108</v>
-      </c>
       <c r="E28" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="85" x14ac:dyDescent="0.2">
       <c r="A29" s="15"/>
       <c r="B29" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="C29" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="C29" s="7" t="s">
-        <v>144</v>
-      </c>
       <c r="D29" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F29" s="7" t="s">
         <v>143</v>
-      </c>
-      <c r="E29" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A30" s="15"/>
       <c r="B30" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="31" spans="1:6" s="12" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A31" s="15"/>
       <c r="B31" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D31" s="7" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="32" spans="1:6" s="11" customFormat="1" ht="103" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A32" s="16"/>
       <c r="B32" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="C32" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="D32" s="9" t="s">
         <v>148</v>
       </c>
-      <c r="C32" s="9" t="s">
-        <v>149</v>
-      </c>
-      <c r="D32" s="9" t="s">
-        <v>150</v>
-      </c>
       <c r="E32" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F32" s="9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A33" s="15" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B33" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="D33" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="C33" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>138</v>
-      </c>
       <c r="E33" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A34" s="15"/>
       <c r="B34" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="85" x14ac:dyDescent="0.2">
       <c r="A35" s="15"/>
       <c r="B35" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C35" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="D35" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="D35" s="2" t="s">
-        <v>124</v>
-      </c>
       <c r="E35" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A36" s="15"/>
       <c r="B36" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="C36" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D36" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="C36" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D36" s="7" t="s">
-        <v>110</v>
-      </c>
       <c r="E36" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F36" s="7"/>
     </row>
     <row r="37" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A37" s="15"/>
       <c r="B37" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="C37" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D37" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="C37" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D37" s="7" t="s">
-        <v>112</v>
-      </c>
       <c r="E37" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F37" s="7"/>
     </row>
     <row r="38" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A38" s="15"/>
       <c r="B38" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A39" s="15"/>
       <c r="B39" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D39" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="C39" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>141</v>
-      </c>
       <c r="E39" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="102" x14ac:dyDescent="0.2">
       <c r="A40" s="15"/>
       <c r="B40" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="C40" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="C40" s="7" t="s">
+      <c r="D40" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="D40" s="7" t="s">
-        <v>108</v>
-      </c>
       <c r="E40" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="85" x14ac:dyDescent="0.2">
       <c r="A41" s="15"/>
       <c r="B41" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="C41" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="C41" s="7" t="s">
-        <v>144</v>
-      </c>
       <c r="D41" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="E41" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F41" s="7" t="s">
         <v>143</v>
-      </c>
-      <c r="E41" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="F41" s="7" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="85" x14ac:dyDescent="0.2">
       <c r="A42" s="15"/>
       <c r="B42" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="C42" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="C42" s="2" t="s">
+      <c r="D42" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="E42" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="D42" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="E42" s="2" t="s">
-        <v>159</v>
-      </c>
       <c r="F42" s="2" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="85" x14ac:dyDescent="0.2">
       <c r="A43" s="15"/>
       <c r="B43" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="F43" s="2" t="s">
         <v>156</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="E43" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="F43" s="2" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A44" s="15"/>
       <c r="B44" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="D44" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="C44" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="D44" s="2" t="s">
-        <v>164</v>
-      </c>
       <c r="E44" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A45" s="15"/>
       <c r="B45" s="2" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>126</v>
+        <v>263</v>
       </c>
     </row>
     <row r="46" spans="1:6" s="11" customFormat="1" ht="35" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A46" s="16"/>
       <c r="B46" s="9" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C46" s="9" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D46" s="9" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E46" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F46" s="9"/>
     </row>
     <row r="47" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A47" s="15"/>
       <c r="B47" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="C47" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D47" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="C47" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D47" s="7" t="s">
-        <v>110</v>
-      </c>
       <c r="E47" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F47" s="7"/>
     </row>
     <row r="48" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A48" s="15"/>
       <c r="B48" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="C48" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D48" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="C48" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D48" s="7" t="s">
-        <v>112</v>
-      </c>
       <c r="E48" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F48" s="7"/>
     </row>
     <row r="49" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A49" s="15"/>
       <c r="B49" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E49" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A50" s="15"/>
       <c r="B50" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D50" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="C50" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D50" s="2" t="s">
-        <v>141</v>
-      </c>
       <c r="E50" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="51" spans="1:6" ht="102" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="15"/>
       <c r="B51" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="C51" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="C51" s="7" t="s">
+      <c r="D51" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="D51" s="7" t="s">
-        <v>108</v>
-      </c>
       <c r="E51" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F51" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="52" spans="1:6" ht="85" x14ac:dyDescent="0.2">
       <c r="A52" s="15"/>
       <c r="B52" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="C52" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="C52" s="7" t="s">
-        <v>144</v>
-      </c>
       <c r="D52" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="E52" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F52" s="7" t="s">
         <v>143</v>
-      </c>
-      <c r="E52" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="F52" s="7" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="53" spans="1:6" ht="119" x14ac:dyDescent="0.2">
       <c r="A53" s="15"/>
       <c r="B53" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="E53" s="5" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="54" spans="1:6" ht="119" x14ac:dyDescent="0.2">
       <c r="A54" s="15"/>
       <c r="B54" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="E54" s="5" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="55" spans="1:6" ht="119" x14ac:dyDescent="0.2">
       <c r="A55" s="15"/>
       <c r="B55" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="E55" s="5" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="56" spans="1:6" ht="119" x14ac:dyDescent="0.2">
       <c r="A56" s="15"/>
       <c r="B56" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="E56" s="5" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="57" spans="1:6" ht="119" x14ac:dyDescent="0.2">
       <c r="A57" s="15"/>
       <c r="B57" s="2" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="E57" s="5" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="58" spans="1:6" ht="119" x14ac:dyDescent="0.2">
       <c r="A58" s="15"/>
       <c r="B58" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="E58" s="5" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="59" spans="1:6" ht="119" x14ac:dyDescent="0.2">
       <c r="A59" s="15"/>
       <c r="B59" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E59" s="5" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="60" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A60" s="15"/>
       <c r="B60" s="2" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E60" s="5" t="s">
-        <v>126</v>
+        <v>263</v>
       </c>
     </row>
     <row r="61" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A61" s="15"/>
       <c r="B61" s="2" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E61" s="5" t="s">
-        <v>126</v>
+        <v>263</v>
       </c>
     </row>
     <row r="62" spans="1:6" ht="119" x14ac:dyDescent="0.2">
       <c r="A62" s="15"/>
       <c r="B62" s="2" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E62" s="5" t="s">
-        <v>126</v>
+        <v>263</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="63" spans="1:6" ht="119" x14ac:dyDescent="0.2">
       <c r="A63" s="15"/>
       <c r="B63" s="2" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E63" s="5" t="s">
-        <v>126</v>
+        <v>263</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="64" spans="1:6" ht="85" x14ac:dyDescent="0.2">
       <c r="A64" s="15"/>
       <c r="B64" s="2" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D64" s="4" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="E64" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="65" spans="1:6" ht="102" x14ac:dyDescent="0.2">
       <c r="A65" s="15"/>
       <c r="B65" s="2" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="E65" s="5" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="66" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A66" s="15"/>
       <c r="B66" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="E66" s="5" t="s">
         <v>194</v>
-      </c>
-      <c r="C66" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="D66" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="E66" s="5" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="67" spans="1:6" ht="119" x14ac:dyDescent="0.2">
       <c r="A67" s="15"/>
       <c r="B67" s="2" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="E67" s="5" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="68" spans="1:6" ht="119" x14ac:dyDescent="0.2">
       <c r="A68" s="15"/>
       <c r="B68" s="2" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C68" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="D68" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="D68" s="2" t="s">
-        <v>205</v>
-      </c>
       <c r="E68" s="5" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="69" spans="1:6" ht="119" x14ac:dyDescent="0.2">
       <c r="A69" s="15"/>
       <c r="B69" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="E69" s="5" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="70" spans="1:6" ht="119" x14ac:dyDescent="0.2">
       <c r="A70" s="15"/>
       <c r="B70" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="E70" s="5" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="71" spans="1:6" ht="119" x14ac:dyDescent="0.2">
       <c r="A71" s="15"/>
       <c r="B71" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="E71" s="5" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="72" spans="1:6" ht="119" x14ac:dyDescent="0.2">
       <c r="A72" s="15"/>
       <c r="B72" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="E72" s="5" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="73" spans="1:6" ht="119" x14ac:dyDescent="0.2">
       <c r="A73" s="15"/>
       <c r="B73" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="E73" s="5" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="74" spans="1:6" ht="119" x14ac:dyDescent="0.2">
       <c r="A74" s="15"/>
       <c r="B74" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C74" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="D74" s="3" t="s">
         <v>215</v>
       </c>
-      <c r="D74" s="3" t="s">
-        <v>217</v>
-      </c>
       <c r="E74" s="5" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="75" spans="1:6" ht="119" x14ac:dyDescent="0.2">
       <c r="A75" s="15"/>
       <c r="B75" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="E75" s="5" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="76" spans="1:6" ht="119" x14ac:dyDescent="0.2">
       <c r="A76" s="15"/>
       <c r="B76" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="E76" s="5" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="77" spans="1:6" ht="119" x14ac:dyDescent="0.2">
       <c r="A77" s="15"/>
       <c r="B77" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="E77" s="5" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="78" spans="1:6" ht="119" x14ac:dyDescent="0.2">
       <c r="A78" s="15"/>
       <c r="B78" s="2" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="E78" s="5" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="79" spans="1:6" ht="119" x14ac:dyDescent="0.2">
       <c r="A79" s="15"/>
       <c r="B79" s="3" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="D79" s="3" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="E79" s="13" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F79" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="80" spans="1:6" ht="119" x14ac:dyDescent="0.2">
       <c r="A80" s="15"/>
       <c r="B80" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="E80" s="13" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F80" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="81" spans="1:6" ht="119" x14ac:dyDescent="0.2">
       <c r="A81" s="15"/>
       <c r="B81" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="E81" s="13" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F81" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="82" spans="1:6" ht="119" x14ac:dyDescent="0.2">
       <c r="A82" s="15"/>
       <c r="B82" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="E82" s="13" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F82" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="83" spans="1:6" ht="119" x14ac:dyDescent="0.2">
       <c r="A83" s="15"/>
       <c r="B83" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="E83" s="13" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F83" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="84" spans="1:6" ht="119" x14ac:dyDescent="0.2">
       <c r="A84" s="15"/>
       <c r="B84" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="E84" s="13" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F84" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="85" spans="1:6" ht="119" x14ac:dyDescent="0.2">
       <c r="A85" s="15"/>
       <c r="B85" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="E85" s="13" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F85" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="86" spans="1:6" ht="119" x14ac:dyDescent="0.2">
       <c r="A86" s="15"/>
       <c r="B86" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="E86" s="13" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F86" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="87" spans="1:6" ht="119" x14ac:dyDescent="0.2">
       <c r="A87" s="15"/>
       <c r="B87" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="E87" s="13" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F87" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="88" spans="1:6" ht="119" x14ac:dyDescent="0.2">
       <c r="A88" s="15"/>
       <c r="B88" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="E88" s="13" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F88" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="89" spans="1:6" ht="119" x14ac:dyDescent="0.2">
       <c r="A89" s="15"/>
       <c r="B89" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C89" s="3" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D89" s="3" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="E89" s="13" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F89" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="90" spans="1:6" ht="119" x14ac:dyDescent="0.2">
       <c r="A90" s="15"/>
       <c r="B90" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="E90" s="13" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F90" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="91" spans="1:6" ht="119" x14ac:dyDescent="0.2">
       <c r="A91" s="15"/>
       <c r="B91" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C91" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="D91" s="2" t="s">
         <v>242</v>
       </c>
-      <c r="D91" s="2" t="s">
-        <v>244</v>
-      </c>
       <c r="E91" s="13" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F91" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="92" spans="1:6" ht="119" x14ac:dyDescent="0.2">
       <c r="A92" s="15"/>
       <c r="B92" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="E92" s="13" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F92" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="93" spans="1:6" ht="119" x14ac:dyDescent="0.2">
       <c r="A93" s="15"/>
       <c r="B93" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C93" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="D93" s="3" t="s">
         <v>245</v>
       </c>
-      <c r="D93" s="3" t="s">
-        <v>247</v>
-      </c>
       <c r="E93" s="13" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F93" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="94" spans="1:6" ht="119" x14ac:dyDescent="0.2">
       <c r="A94" s="15"/>
       <c r="B94" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="E94" s="13" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F94" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="95" spans="1:6" ht="119" x14ac:dyDescent="0.2">
       <c r="A95" s="15"/>
       <c r="B95" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="E95" s="13" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F95" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="96" spans="1:6" ht="119" x14ac:dyDescent="0.2">
       <c r="A96" s="15"/>
       <c r="B96" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="E96" s="13" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F96" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="97" spans="1:6" ht="119" x14ac:dyDescent="0.2">
       <c r="A97" s="15"/>
       <c r="B97" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="E97" s="13" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F97" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="98" spans="1:6" ht="119" x14ac:dyDescent="0.2">
       <c r="A98" s="15"/>
       <c r="B98" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="E98" s="13" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F98" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="99" spans="1:6" ht="119" x14ac:dyDescent="0.2">
       <c r="A99" s="15"/>
       <c r="B99" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="E99" s="13" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F99" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="100" spans="1:6" s="11" customFormat="1" ht="120" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A100" s="16"/>
       <c r="B100" s="9" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C100" s="9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D100" s="9" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="E100" s="14" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F100" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="101" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A101" s="17" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="E101" s="2" t="s">
         <v>6</v>
@@ -3033,37 +3030,37 @@
     <row r="102" spans="1:6" ht="119" x14ac:dyDescent="0.2">
       <c r="A102" s="17"/>
       <c r="B102" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="E102" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="103" spans="1:6" ht="102" x14ac:dyDescent="0.2">
       <c r="A103" s="17"/>
       <c r="B103" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C103" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="D103" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="E103" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="D103" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="E103" s="2" t="s">
-        <v>85</v>
-      </c>
       <c r="F103" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
   </sheetData>

--- a/docs/scATACpipe_module_references.xlsx
+++ b/docs/scATACpipe_module_references.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10215"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kaihu/Projects/workflow/scATACpipe/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42217B3B-2936-CE41-A648-6AF1E4CED802}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85724BCE-E609-CB4F-9F6C-723DF2987CE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="540" yWindow="500" windowWidth="33620" windowHeight="16300" xr2:uid="{D5566E01-952C-494C-8CCC-37924E7B856D}"/>
+    <workbookView xWindow="1200" yWindow="500" windowWidth="25680" windowHeight="16300" xr2:uid="{D5566E01-952C-494C-8CCC-37924E7B856D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -105,9 +105,6 @@
     <t>hukai916/miniconda3_xenial:0.1</t>
   </si>
   <si>
-    <t>wget</t>
-  </si>
-  <si>
     <t>hukai916/pysam_xenial:0.1</t>
   </si>
   <si>
@@ -827,6 +824,9 @@
   </si>
   <si>
     <t>hukai916/r_utils:0.1</t>
+  </si>
+  <si>
+    <t>wget, custom Python script</t>
   </si>
 </sst>
 </file>
@@ -1260,8 +1260,8 @@
   <dimension ref="A1:F103"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="112" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B45" sqref="B45"/>
+      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1283,7 +1283,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D1" s="6" t="s">
         <v>2</v>
@@ -1303,63 +1303,63 @@
         <v>4</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E2" s="7" t="s">
         <v>6</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="68" x14ac:dyDescent="0.2">
       <c r="A3" s="15"/>
       <c r="B3" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="D3" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="C3" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>96</v>
-      </c>
       <c r="E3" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F3" s="7"/>
     </row>
     <row r="4" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A4" s="15"/>
       <c r="B4" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="D4" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="C4" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>98</v>
-      </c>
       <c r="E4" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F4" s="7"/>
     </row>
     <row r="5" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A5" s="15"/>
       <c r="B5" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="D5" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="C5" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>100</v>
-      </c>
       <c r="E5" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F5" s="7"/>
     </row>
@@ -1369,16 +1369,16 @@
         <v>8</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="68" x14ac:dyDescent="0.2">
@@ -1387,28 +1387,28 @@
         <v>11</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>20</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A8" s="15"/>
       <c r="B8" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="D8" s="7" t="s">
         <v>108</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>109</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>22</v>
@@ -1418,13 +1418,13 @@
     <row r="9" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A9" s="15"/>
       <c r="B9" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="D9" s="7" t="s">
         <v>110</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>111</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>22</v>
@@ -1434,19 +1434,19 @@
     <row r="10" spans="1:6" ht="102" x14ac:dyDescent="0.2">
       <c r="A10" s="15"/>
       <c r="B10" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="C10" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="D10" s="7" t="s">
         <v>106</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>107</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>21</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="85" x14ac:dyDescent="0.2">
@@ -1455,16 +1455,16 @@
         <v>12</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>21</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="85" x14ac:dyDescent="0.2">
@@ -1473,103 +1473,103 @@
         <v>13</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>21</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="102" x14ac:dyDescent="0.2">
       <c r="A13" s="15"/>
       <c r="B13" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="C13" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="C13" s="7" t="s">
+      <c r="D13" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="D13" s="7" t="s">
-        <v>114</v>
-      </c>
       <c r="E13" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="102" x14ac:dyDescent="0.2">
       <c r="A14" s="15"/>
       <c r="B14" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="C14" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="C14" s="7" t="s">
+      <c r="D14" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="D14" s="7" t="s">
-        <v>117</v>
-      </c>
       <c r="E14" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="68" x14ac:dyDescent="0.2">
       <c r="A15" s="15"/>
       <c r="B15" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="C15" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="C15" s="7" t="s">
+      <c r="D15" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="E15" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="D15" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>120</v>
-      </c>
       <c r="F15" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="85" x14ac:dyDescent="0.2">
       <c r="A16" s="15"/>
       <c r="B16" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="C16" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="C16" s="7" t="s">
+      <c r="D16" s="7" t="s">
         <v>122</v>
-      </c>
-      <c r="D16" s="7" t="s">
-        <v>123</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>19</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A17" s="15"/>
       <c r="B17" s="7" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C17" s="7" t="s">
         <v>17</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F17" s="7"/>
     </row>
@@ -1582,10 +1582,10 @@
         <v>17</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F18" s="7"/>
     </row>
@@ -1595,34 +1595,34 @@
         <v>10</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>18</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A20" s="15"/>
       <c r="B20" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="D20" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="C20" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="D20" s="7" t="s">
-        <v>130</v>
-      </c>
       <c r="E20" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F20" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="119" x14ac:dyDescent="0.2">
@@ -1631,16 +1631,16 @@
         <v>14</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="22" spans="1:6" s="11" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -1649,30 +1649,30 @@
         <v>15</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E22" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F22" s="10" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A23" s="15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B23" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C23" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="C23" s="2" t="s">
+      <c r="D23" s="2" t="s">
         <v>135</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>136</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>22</v>
@@ -1681,13 +1681,13 @@
     <row r="24" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A24" s="15"/>
       <c r="B24" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="D24" s="7" t="s">
         <v>108</v>
-      </c>
-      <c r="C24" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D24" s="7" t="s">
-        <v>109</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>22</v>
@@ -1697,13 +1697,13 @@
     <row r="25" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A25" s="15"/>
       <c r="B25" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="D25" s="7" t="s">
         <v>110</v>
-      </c>
-      <c r="C25" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D25" s="7" t="s">
-        <v>111</v>
       </c>
       <c r="E25" s="7" t="s">
         <v>22</v>
@@ -1713,13 +1713,13 @@
     <row r="26" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A26" s="15"/>
       <c r="B26" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>23</v>
+        <v>263</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E26" s="3" t="s">
         <v>22</v>
@@ -1728,13 +1728,13 @@
     <row r="27" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A27" s="15"/>
       <c r="B27" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>23</v>
+        <v>263</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E27" s="3" t="s">
         <v>22</v>
@@ -1743,105 +1743,105 @@
     <row r="28" spans="1:6" ht="102" x14ac:dyDescent="0.2">
       <c r="A28" s="15"/>
       <c r="B28" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="C28" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="C28" s="7" t="s">
+      <c r="D28" s="7" t="s">
         <v>106</v>
-      </c>
-      <c r="D28" s="7" t="s">
-        <v>107</v>
       </c>
       <c r="E28" s="7" t="s">
         <v>21</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="85" x14ac:dyDescent="0.2">
       <c r="A29" s="15"/>
       <c r="B29" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="D29" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="C29" s="7" t="s">
+      <c r="E29" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F29" s="7" t="s">
         <v>142</v>
-      </c>
-      <c r="D29" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="E29" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A30" s="15"/>
       <c r="B30" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="31" spans="1:6" s="12" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A31" s="15"/>
       <c r="B31" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D31" s="7" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="32" spans="1:6" s="11" customFormat="1" ht="103" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A32" s="16"/>
       <c r="B32" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="C32" s="9" t="s">
         <v>146</v>
       </c>
-      <c r="C32" s="9" t="s">
+      <c r="D32" s="9" t="s">
         <v>147</v>
       </c>
-      <c r="D32" s="9" t="s">
-        <v>148</v>
-      </c>
       <c r="E32" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F32" s="9" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A33" s="15" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B33" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C33" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="C33" s="2" t="s">
+      <c r="D33" s="2" t="s">
         <v>135</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>136</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>22</v>
@@ -1850,13 +1850,13 @@
     <row r="34" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A34" s="15"/>
       <c r="B34" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="D34" s="2" t="s">
         <v>150</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>151</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>22</v>
@@ -1865,31 +1865,31 @@
     <row r="35" spans="1:6" ht="85" x14ac:dyDescent="0.2">
       <c r="A35" s="15"/>
       <c r="B35" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C35" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="D35" s="2" t="s">
         <v>122</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>123</v>
       </c>
       <c r="E35" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A36" s="15"/>
       <c r="B36" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="C36" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="D36" s="7" t="s">
         <v>108</v>
-      </c>
-      <c r="C36" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D36" s="7" t="s">
-        <v>109</v>
       </c>
       <c r="E36" s="7" t="s">
         <v>22</v>
@@ -1899,13 +1899,13 @@
     <row r="37" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A37" s="15"/>
       <c r="B37" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="C37" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="D37" s="7" t="s">
         <v>110</v>
-      </c>
-      <c r="C37" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D37" s="7" t="s">
-        <v>111</v>
       </c>
       <c r="E37" s="7" t="s">
         <v>22</v>
@@ -1915,13 +1915,13 @@
     <row r="38" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A38" s="15"/>
       <c r="B38" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>23</v>
+        <v>263</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E38" s="3" t="s">
         <v>22</v>
@@ -1930,13 +1930,13 @@
     <row r="39" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A39" s="15"/>
       <c r="B39" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>23</v>
+        <v>263</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E39" s="3" t="s">
         <v>22</v>
@@ -1945,131 +1945,131 @@
     <row r="40" spans="1:6" ht="102" x14ac:dyDescent="0.2">
       <c r="A40" s="15"/>
       <c r="B40" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="C40" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="C40" s="7" t="s">
+      <c r="D40" s="7" t="s">
         <v>106</v>
-      </c>
-      <c r="D40" s="7" t="s">
-        <v>107</v>
       </c>
       <c r="E40" s="7" t="s">
         <v>21</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="85" x14ac:dyDescent="0.2">
       <c r="A41" s="15"/>
       <c r="B41" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="C41" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="D41" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="C41" s="7" t="s">
+      <c r="E41" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F41" s="7" t="s">
         <v>142</v>
-      </c>
-      <c r="D41" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="E41" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="F41" s="7" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="85" x14ac:dyDescent="0.2">
       <c r="A42" s="15"/>
       <c r="B42" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C42" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="F42" s="2" t="s">
         <v>155</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="E42" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="F42" s="2" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="85" x14ac:dyDescent="0.2">
       <c r="A43" s="15"/>
       <c r="B43" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="C43" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="C43" s="2" t="s">
+      <c r="D43" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="F43" s="2" t="s">
         <v>155</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="E43" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="F43" s="2" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A44" s="15"/>
       <c r="B44" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C44" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="C44" s="2" t="s">
+      <c r="D44" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="D44" s="2" t="s">
-        <v>162</v>
-      </c>
       <c r="E44" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A45" s="15"/>
       <c r="B45" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="46" spans="1:6" s="11" customFormat="1" ht="35" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A46" s="16"/>
       <c r="B46" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="C46" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="D46" s="9" t="s">
         <v>164</v>
       </c>
-      <c r="C46" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="D46" s="9" t="s">
-        <v>165</v>
-      </c>
       <c r="E46" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F46" s="9"/>
     </row>
     <row r="47" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A47" s="15"/>
       <c r="B47" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="C47" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="D47" s="7" t="s">
         <v>108</v>
-      </c>
-      <c r="C47" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D47" s="7" t="s">
-        <v>109</v>
       </c>
       <c r="E47" s="7" t="s">
         <v>22</v>
@@ -2079,13 +2079,13 @@
     <row r="48" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A48" s="15"/>
       <c r="B48" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="C48" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="D48" s="7" t="s">
         <v>110</v>
-      </c>
-      <c r="C48" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D48" s="7" t="s">
-        <v>111</v>
       </c>
       <c r="E48" s="7" t="s">
         <v>22</v>
@@ -2095,13 +2095,13 @@
     <row r="49" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A49" s="15"/>
       <c r="B49" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>23</v>
+        <v>263</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E49" s="3" t="s">
         <v>22</v>
@@ -2110,13 +2110,13 @@
     <row r="50" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A50" s="15"/>
       <c r="B50" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>23</v>
+        <v>263</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E50" s="3" t="s">
         <v>22</v>
@@ -2125,903 +2125,903 @@
     <row r="51" spans="1:6" ht="102" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="15"/>
       <c r="B51" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="C51" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="C51" s="7" t="s">
+      <c r="D51" s="7" t="s">
         <v>106</v>
-      </c>
-      <c r="D51" s="7" t="s">
-        <v>107</v>
       </c>
       <c r="E51" s="7" t="s">
         <v>21</v>
       </c>
       <c r="F51" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="52" spans="1:6" ht="85" x14ac:dyDescent="0.2">
       <c r="A52" s="15"/>
       <c r="B52" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="C52" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="D52" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="C52" s="7" t="s">
+      <c r="E52" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F52" s="7" t="s">
         <v>142</v>
-      </c>
-      <c r="D52" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="E52" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="F52" s="7" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="53" spans="1:6" ht="119" x14ac:dyDescent="0.2">
       <c r="A53" s="15"/>
       <c r="B53" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E53" s="5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="54" spans="1:6" ht="119" x14ac:dyDescent="0.2">
       <c r="A54" s="15"/>
       <c r="B54" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E54" s="5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="55" spans="1:6" ht="119" x14ac:dyDescent="0.2">
       <c r="A55" s="15"/>
       <c r="B55" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E55" s="5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="56" spans="1:6" ht="119" x14ac:dyDescent="0.2">
       <c r="A56" s="15"/>
       <c r="B56" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E56" s="5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="57" spans="1:6" ht="119" x14ac:dyDescent="0.2">
       <c r="A57" s="15"/>
       <c r="B57" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="D57" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="C57" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="D57" s="2" t="s">
-        <v>173</v>
-      </c>
       <c r="E57" s="5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="58" spans="1:6" ht="119" x14ac:dyDescent="0.2">
       <c r="A58" s="15"/>
       <c r="B58" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E58" s="5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="59" spans="1:6" ht="119" x14ac:dyDescent="0.2">
       <c r="A59" s="15"/>
       <c r="B59" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E59" s="5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="60" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A60" s="15"/>
       <c r="B60" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E60" s="5" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="61" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A61" s="15"/>
       <c r="B61" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E61" s="5" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="62" spans="1:6" ht="119" x14ac:dyDescent="0.2">
       <c r="A62" s="15"/>
       <c r="B62" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C62" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="D62" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="D62" s="2" t="s">
-        <v>186</v>
-      </c>
       <c r="E62" s="5" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="63" spans="1:6" ht="119" x14ac:dyDescent="0.2">
       <c r="A63" s="15"/>
       <c r="B63" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C63" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="D63" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="D63" s="2" t="s">
-        <v>188</v>
-      </c>
       <c r="E63" s="5" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="64" spans="1:6" ht="85" x14ac:dyDescent="0.2">
       <c r="A64" s="15"/>
       <c r="B64" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="D64" s="4" t="s">
         <v>189</v>
       </c>
-      <c r="C64" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="D64" s="4" t="s">
-        <v>190</v>
-      </c>
       <c r="E64" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="65" spans="1:6" ht="102" x14ac:dyDescent="0.2">
       <c r="A65" s="15"/>
       <c r="B65" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C65" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="D65" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="D65" s="2" t="s">
-        <v>197</v>
-      </c>
       <c r="E65" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="F65" s="2" t="s">
         <v>194</v>
-      </c>
-      <c r="F65" s="2" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="66" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A66" s="15"/>
       <c r="B66" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E66" s="5" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="67" spans="1:6" ht="119" x14ac:dyDescent="0.2">
       <c r="A67" s="15"/>
       <c r="B67" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E67" s="5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="68" spans="1:6" ht="119" x14ac:dyDescent="0.2">
       <c r="A68" s="15"/>
       <c r="B68" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="D68" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="C68" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="D68" s="2" t="s">
-        <v>203</v>
-      </c>
       <c r="E68" s="5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="69" spans="1:6" ht="119" x14ac:dyDescent="0.2">
       <c r="A69" s="15"/>
       <c r="B69" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E69" s="5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="70" spans="1:6" ht="119" x14ac:dyDescent="0.2">
       <c r="A70" s="15"/>
       <c r="B70" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C70" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="D70" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="D70" s="2" t="s">
-        <v>206</v>
-      </c>
       <c r="E70" s="5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="71" spans="1:6" ht="119" x14ac:dyDescent="0.2">
       <c r="A71" s="15"/>
       <c r="B71" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C71" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="D71" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="D71" s="2" t="s">
-        <v>208</v>
-      </c>
       <c r="E71" s="5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="72" spans="1:6" ht="119" x14ac:dyDescent="0.2">
       <c r="A72" s="15"/>
       <c r="B72" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C72" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="D72" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="D72" s="2" t="s">
-        <v>210</v>
-      </c>
       <c r="E72" s="5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="73" spans="1:6" ht="119" x14ac:dyDescent="0.2">
       <c r="A73" s="15"/>
       <c r="B73" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C73" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="D73" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="D73" s="2" t="s">
-        <v>212</v>
-      </c>
       <c r="E73" s="5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="74" spans="1:6" ht="119" x14ac:dyDescent="0.2">
       <c r="A74" s="15"/>
       <c r="B74" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D74" s="3" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E74" s="5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="75" spans="1:6" ht="119" x14ac:dyDescent="0.2">
       <c r="A75" s="15"/>
       <c r="B75" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C75" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="D75" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="D75" s="2" t="s">
-        <v>214</v>
-      </c>
       <c r="E75" s="5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="76" spans="1:6" ht="119" x14ac:dyDescent="0.2">
       <c r="A76" s="15"/>
       <c r="B76" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C76" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="D76" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="D76" s="2" t="s">
-        <v>217</v>
-      </c>
       <c r="E76" s="5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="77" spans="1:6" ht="119" x14ac:dyDescent="0.2">
       <c r="A77" s="15"/>
       <c r="B77" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E77" s="5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="78" spans="1:6" ht="119" x14ac:dyDescent="0.2">
       <c r="A78" s="15"/>
       <c r="B78" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="C78" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="C78" s="2" t="s">
-        <v>221</v>
-      </c>
       <c r="D78" s="2" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E78" s="5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="79" spans="1:6" ht="119" x14ac:dyDescent="0.2">
       <c r="A79" s="15"/>
       <c r="B79" s="3" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D79" s="3" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E79" s="13" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F79" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="80" spans="1:6" ht="119" x14ac:dyDescent="0.2">
       <c r="A80" s="15"/>
       <c r="B80" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C80" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="D80" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="D80" s="2" t="s">
-        <v>224</v>
-      </c>
       <c r="E80" s="13" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F80" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="81" spans="1:6" ht="119" x14ac:dyDescent="0.2">
       <c r="A81" s="15"/>
       <c r="B81" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E81" s="13" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F81" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="82" spans="1:6" ht="119" x14ac:dyDescent="0.2">
       <c r="A82" s="15"/>
       <c r="B82" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E82" s="13" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F82" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="83" spans="1:6" ht="119" x14ac:dyDescent="0.2">
       <c r="A83" s="15"/>
       <c r="B83" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E83" s="13" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F83" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="84" spans="1:6" ht="119" x14ac:dyDescent="0.2">
       <c r="A84" s="15"/>
       <c r="B84" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C84" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="D84" s="2" t="s">
         <v>231</v>
       </c>
-      <c r="D84" s="2" t="s">
-        <v>232</v>
-      </c>
       <c r="E84" s="13" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F84" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="85" spans="1:6" ht="119" x14ac:dyDescent="0.2">
       <c r="A85" s="15"/>
       <c r="B85" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E85" s="13" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F85" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="86" spans="1:6" ht="119" x14ac:dyDescent="0.2">
       <c r="A86" s="15"/>
       <c r="B86" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E86" s="13" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F86" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="87" spans="1:6" ht="119" x14ac:dyDescent="0.2">
       <c r="A87" s="15"/>
       <c r="B87" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E87" s="13" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F87" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="88" spans="1:6" ht="119" x14ac:dyDescent="0.2">
       <c r="A88" s="15"/>
       <c r="B88" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C88" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="D88" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="D88" s="2" t="s">
-        <v>237</v>
-      </c>
       <c r="E88" s="13" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F88" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="89" spans="1:6" ht="119" x14ac:dyDescent="0.2">
       <c r="A89" s="15"/>
       <c r="B89" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C89" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="D89" s="3" t="s">
         <v>238</v>
       </c>
-      <c r="D89" s="3" t="s">
-        <v>239</v>
-      </c>
       <c r="E89" s="13" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F89" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="90" spans="1:6" ht="119" x14ac:dyDescent="0.2">
       <c r="A90" s="15"/>
       <c r="B90" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C90" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="D90" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="D90" s="2" t="s">
-        <v>241</v>
-      </c>
       <c r="E90" s="13" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F90" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="91" spans="1:6" ht="119" x14ac:dyDescent="0.2">
       <c r="A91" s="15"/>
       <c r="B91" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E91" s="13" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F91" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="92" spans="1:6" ht="119" x14ac:dyDescent="0.2">
       <c r="A92" s="15"/>
       <c r="B92" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C92" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="D92" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="D92" s="2" t="s">
-        <v>244</v>
-      </c>
       <c r="E92" s="13" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F92" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="93" spans="1:6" ht="119" x14ac:dyDescent="0.2">
       <c r="A93" s="15"/>
       <c r="B93" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C93" s="3" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D93" s="3" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E93" s="13" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F93" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="94" spans="1:6" ht="119" x14ac:dyDescent="0.2">
       <c r="A94" s="15"/>
       <c r="B94" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C94" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="D94" s="2" t="s">
         <v>246</v>
       </c>
-      <c r="D94" s="2" t="s">
-        <v>247</v>
-      </c>
       <c r="E94" s="13" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F94" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="95" spans="1:6" ht="119" x14ac:dyDescent="0.2">
       <c r="A95" s="15"/>
       <c r="B95" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C95" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="D95" s="2" t="s">
         <v>248</v>
       </c>
-      <c r="D95" s="2" t="s">
-        <v>249</v>
-      </c>
       <c r="E95" s="13" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F95" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="96" spans="1:6" ht="119" x14ac:dyDescent="0.2">
       <c r="A96" s="15"/>
       <c r="B96" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C96" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="D96" s="2" t="s">
         <v>250</v>
       </c>
-      <c r="D96" s="2" t="s">
-        <v>251</v>
-      </c>
       <c r="E96" s="13" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F96" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="97" spans="1:6" ht="119" x14ac:dyDescent="0.2">
       <c r="A97" s="15"/>
       <c r="B97" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C97" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="D97" s="2" t="s">
         <v>252</v>
       </c>
-      <c r="D97" s="2" t="s">
-        <v>253</v>
-      </c>
       <c r="E97" s="13" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F97" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="98" spans="1:6" ht="119" x14ac:dyDescent="0.2">
       <c r="A98" s="15"/>
       <c r="B98" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E98" s="13" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F98" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="99" spans="1:6" ht="119" x14ac:dyDescent="0.2">
       <c r="A99" s="15"/>
       <c r="B99" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C99" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="D99" s="2" t="s">
         <v>254</v>
       </c>
-      <c r="D99" s="2" t="s">
-        <v>255</v>
-      </c>
       <c r="E99" s="13" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F99" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="100" spans="1:6" s="11" customFormat="1" ht="120" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A100" s="16"/>
       <c r="B100" s="9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C100" s="9" t="s">
         <v>17</v>
       </c>
       <c r="D100" s="9" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E100" s="14" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F100" s="10" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="101" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A101" s="17" t="s">
+        <v>257</v>
+      </c>
+      <c r="B101" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="D101" s="2" t="s">
         <v>258</v>
-      </c>
-      <c r="B101" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="C101" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="D101" s="2" t="s">
-        <v>259</v>
       </c>
       <c r="E101" s="2" t="s">
         <v>6</v>
@@ -3030,37 +3030,37 @@
     <row r="102" spans="1:6" ht="119" x14ac:dyDescent="0.2">
       <c r="A102" s="17"/>
       <c r="B102" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E102" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="103" spans="1:6" ht="102" x14ac:dyDescent="0.2">
       <c r="A103" s="17"/>
       <c r="B103" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C103" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D103" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E103" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="D103" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="E103" s="2" t="s">
-        <v>84</v>
-      </c>
       <c r="F103" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
   </sheetData>

--- a/docs/scATACpipe_module_references.xlsx
+++ b/docs/scATACpipe_module_references.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kaihu/Projects/workflow/scATACpipe/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85724BCE-E609-CB4F-9F6C-723DF2987CE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC9BF8D3-F6EC-0C4D-8AB4-7868365EDA31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1200" yWindow="500" windowWidth="25680" windowHeight="16300" xr2:uid="{D5566E01-952C-494C-8CCC-37924E7B856D}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="490" uniqueCount="264">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="490" uniqueCount="263">
   <si>
     <t>Module</t>
   </si>
@@ -82,9 +82,6 @@
   </si>
   <si>
     <t>GET_FRAGMENTS</t>
-  </si>
-  <si>
-    <t>hukai916/sinto_xenial:0.1</t>
   </si>
   <si>
     <t>custom R script</t>
@@ -1260,8 +1257,8 @@
   <dimension ref="A1:F103"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="112" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D32" sqref="D32"/>
+      <pane ySplit="1" topLeftCell="A99" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E102" sqref="E102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1283,7 +1280,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D1" s="6" t="s">
         <v>2</v>
@@ -1303,63 +1300,63 @@
         <v>4</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E2" s="7" t="s">
         <v>6</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="68" x14ac:dyDescent="0.2">
       <c r="A3" s="15"/>
       <c r="B3" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="D3" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="C3" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>95</v>
-      </c>
       <c r="E3" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F3" s="7"/>
     </row>
     <row r="4" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A4" s="15"/>
       <c r="B4" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="D4" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="C4" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>97</v>
-      </c>
       <c r="E4" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F4" s="7"/>
     </row>
     <row r="5" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A5" s="15"/>
       <c r="B5" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="D5" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="C5" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>99</v>
-      </c>
       <c r="E5" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F5" s="7"/>
     </row>
@@ -1369,16 +1366,16 @@
         <v>8</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="68" x14ac:dyDescent="0.2">
@@ -1387,66 +1384,66 @@
         <v>11</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A8" s="15"/>
       <c r="B8" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="D8" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="C8" s="7" t="s">
-        <v>263</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>108</v>
-      </c>
       <c r="E8" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F8" s="7"/>
     </row>
     <row r="9" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A9" s="15"/>
       <c r="B9" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="D9" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="C9" s="7" t="s">
-        <v>263</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>110</v>
-      </c>
       <c r="E9" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F9" s="7"/>
     </row>
     <row r="10" spans="1:6" ht="102" x14ac:dyDescent="0.2">
       <c r="A10" s="15"/>
       <c r="B10" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="C10" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="D10" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="D10" s="7" t="s">
-        <v>106</v>
-      </c>
       <c r="E10" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="85" x14ac:dyDescent="0.2">
@@ -1455,16 +1452,16 @@
         <v>12</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="85" x14ac:dyDescent="0.2">
@@ -1473,103 +1470,103 @@
         <v>13</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="102" x14ac:dyDescent="0.2">
       <c r="A13" s="15"/>
       <c r="B13" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="C13" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="C13" s="7" t="s">
+      <c r="D13" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="D13" s="7" t="s">
-        <v>113</v>
-      </c>
       <c r="E13" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="102" x14ac:dyDescent="0.2">
       <c r="A14" s="15"/>
       <c r="B14" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="C14" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="C14" s="7" t="s">
+      <c r="D14" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="D14" s="7" t="s">
-        <v>116</v>
-      </c>
       <c r="E14" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="68" x14ac:dyDescent="0.2">
       <c r="A15" s="15"/>
       <c r="B15" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="C15" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="C15" s="7" t="s">
+      <c r="D15" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="E15" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="D15" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>119</v>
-      </c>
       <c r="F15" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="85" x14ac:dyDescent="0.2">
       <c r="A16" s="15"/>
       <c r="B16" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="C16" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="C16" s="7" t="s">
+      <c r="D16" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="D16" s="7" t="s">
-        <v>122</v>
-      </c>
       <c r="E16" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A17" s="15"/>
       <c r="B17" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D17" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="C17" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="D17" s="7" t="s">
-        <v>124</v>
-      </c>
       <c r="E17" s="7" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F17" s="7"/>
     </row>
@@ -1579,13 +1576,13 @@
         <v>9</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F18" s="7"/>
     </row>
@@ -1595,34 +1592,34 @@
         <v>10</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A20" s="15"/>
       <c r="B20" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="D20" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="C20" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="D20" s="7" t="s">
-        <v>129</v>
-      </c>
       <c r="E20" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F20" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="119" x14ac:dyDescent="0.2">
@@ -1631,16 +1628,16 @@
         <v>14</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="22" spans="1:6" s="11" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -1649,1379 +1646,1379 @@
         <v>15</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E22" s="9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F22" s="10" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A23" s="15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B23" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C23" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="C23" s="2" t="s">
+      <c r="D23" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="D23" s="2" t="s">
-        <v>135</v>
-      </c>
       <c r="E23" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A24" s="15"/>
       <c r="B24" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="D24" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="C24" s="7" t="s">
-        <v>263</v>
-      </c>
-      <c r="D24" s="7" t="s">
-        <v>108</v>
-      </c>
       <c r="E24" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F24" s="7"/>
     </row>
     <row r="25" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A25" s="15"/>
       <c r="B25" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="D25" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="C25" s="7" t="s">
-        <v>263</v>
-      </c>
-      <c r="D25" s="7" t="s">
-        <v>110</v>
-      </c>
       <c r="E25" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F25" s="7"/>
     </row>
     <row r="26" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A26" s="15"/>
       <c r="B26" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A27" s="15"/>
       <c r="B27" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="102" x14ac:dyDescent="0.2">
       <c r="A28" s="15"/>
       <c r="B28" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="C28" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="C28" s="7" t="s">
+      <c r="D28" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="D28" s="7" t="s">
-        <v>106</v>
-      </c>
       <c r="E28" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="85" x14ac:dyDescent="0.2">
       <c r="A29" s="15"/>
       <c r="B29" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="D29" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="C29" s="7" t="s">
+      <c r="E29" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="F29" s="7" t="s">
         <v>141</v>
-      </c>
-      <c r="D29" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="E29" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A30" s="15"/>
       <c r="B30" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="31" spans="1:6" s="12" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A31" s="15"/>
       <c r="B31" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D31" s="7" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="32" spans="1:6" s="11" customFormat="1" ht="103" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A32" s="16"/>
       <c r="B32" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="C32" s="9" t="s">
         <v>145</v>
       </c>
-      <c r="C32" s="9" t="s">
+      <c r="D32" s="9" t="s">
         <v>146</v>
       </c>
-      <c r="D32" s="9" t="s">
-        <v>147</v>
-      </c>
       <c r="E32" s="9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F32" s="9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A33" s="15" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B33" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C33" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="C33" s="2" t="s">
+      <c r="D33" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="D33" s="2" t="s">
-        <v>135</v>
-      </c>
       <c r="E33" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A34" s="15"/>
       <c r="B34" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="D34" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="C34" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>150</v>
-      </c>
       <c r="E34" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="85" x14ac:dyDescent="0.2">
       <c r="A35" s="15"/>
       <c r="B35" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C35" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="D35" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="D35" s="2" t="s">
-        <v>122</v>
-      </c>
       <c r="E35" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A36" s="15"/>
       <c r="B36" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="C36" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="D36" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="C36" s="7" t="s">
-        <v>263</v>
-      </c>
-      <c r="D36" s="7" t="s">
-        <v>108</v>
-      </c>
       <c r="E36" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F36" s="7"/>
     </row>
     <row r="37" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A37" s="15"/>
       <c r="B37" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="C37" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="D37" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="C37" s="7" t="s">
-        <v>263</v>
-      </c>
-      <c r="D37" s="7" t="s">
-        <v>110</v>
-      </c>
       <c r="E37" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F37" s="7"/>
     </row>
     <row r="38" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A38" s="15"/>
       <c r="B38" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A39" s="15"/>
       <c r="B39" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="102" x14ac:dyDescent="0.2">
       <c r="A40" s="15"/>
       <c r="B40" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="C40" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="C40" s="7" t="s">
+      <c r="D40" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="D40" s="7" t="s">
-        <v>106</v>
-      </c>
       <c r="E40" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="85" x14ac:dyDescent="0.2">
       <c r="A41" s="15"/>
       <c r="B41" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="C41" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="D41" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="C41" s="7" t="s">
+      <c r="E41" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="F41" s="7" t="s">
         <v>141</v>
-      </c>
-      <c r="D41" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="E41" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F41" s="7" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="85" x14ac:dyDescent="0.2">
       <c r="A42" s="15"/>
       <c r="B42" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C42" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="F42" s="2" t="s">
         <v>154</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="E42" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="F42" s="2" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="85" x14ac:dyDescent="0.2">
       <c r="A43" s="15"/>
       <c r="B43" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="C43" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="C43" s="2" t="s">
+      <c r="D43" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="F43" s="2" t="s">
         <v>154</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="E43" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="F43" s="2" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A44" s="15"/>
       <c r="B44" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="C44" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="C44" s="2" t="s">
+      <c r="D44" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="D44" s="2" t="s">
-        <v>161</v>
-      </c>
       <c r="E44" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A45" s="15"/>
       <c r="B45" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="46" spans="1:6" s="11" customFormat="1" ht="35" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A46" s="16"/>
       <c r="B46" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="C46" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="D46" s="9" t="s">
         <v>163</v>
       </c>
-      <c r="C46" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="D46" s="9" t="s">
-        <v>164</v>
-      </c>
       <c r="E46" s="9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F46" s="9"/>
     </row>
     <row r="47" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A47" s="15"/>
       <c r="B47" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="C47" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="D47" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="C47" s="7" t="s">
-        <v>263</v>
-      </c>
-      <c r="D47" s="7" t="s">
-        <v>108</v>
-      </c>
       <c r="E47" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F47" s="7"/>
     </row>
     <row r="48" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A48" s="15"/>
       <c r="B48" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="C48" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="D48" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="C48" s="7" t="s">
-        <v>263</v>
-      </c>
-      <c r="D48" s="7" t="s">
-        <v>110</v>
-      </c>
       <c r="E48" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F48" s="7"/>
     </row>
     <row r="49" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A49" s="15"/>
       <c r="B49" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E49" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A50" s="15"/>
       <c r="B50" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="51" spans="1:6" ht="102" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="15"/>
       <c r="B51" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="C51" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="C51" s="7" t="s">
+      <c r="D51" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="D51" s="7" t="s">
-        <v>106</v>
-      </c>
       <c r="E51" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F51" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="52" spans="1:6" ht="85" x14ac:dyDescent="0.2">
       <c r="A52" s="15"/>
       <c r="B52" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="C52" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="D52" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="C52" s="7" t="s">
+      <c r="E52" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="F52" s="7" t="s">
         <v>141</v>
-      </c>
-      <c r="D52" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="E52" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F52" s="7" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="53" spans="1:6" ht="119" x14ac:dyDescent="0.2">
       <c r="A53" s="15"/>
       <c r="B53" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E53" s="5" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="54" spans="1:6" ht="119" x14ac:dyDescent="0.2">
       <c r="A54" s="15"/>
       <c r="B54" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E54" s="5" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="55" spans="1:6" ht="119" x14ac:dyDescent="0.2">
       <c r="A55" s="15"/>
       <c r="B55" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E55" s="5" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="56" spans="1:6" ht="119" x14ac:dyDescent="0.2">
       <c r="A56" s="15"/>
       <c r="B56" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E56" s="5" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="57" spans="1:6" ht="119" x14ac:dyDescent="0.2">
       <c r="A57" s="15"/>
       <c r="B57" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="D57" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="C57" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="D57" s="2" t="s">
-        <v>172</v>
-      </c>
       <c r="E57" s="5" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="58" spans="1:6" ht="119" x14ac:dyDescent="0.2">
       <c r="A58" s="15"/>
       <c r="B58" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E58" s="5" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="59" spans="1:6" ht="119" x14ac:dyDescent="0.2">
       <c r="A59" s="15"/>
       <c r="B59" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E59" s="5" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="60" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A60" s="15"/>
       <c r="B60" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E60" s="5" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="61" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A61" s="15"/>
       <c r="B61" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E61" s="5" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="62" spans="1:6" ht="119" x14ac:dyDescent="0.2">
       <c r="A62" s="15"/>
       <c r="B62" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C62" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="D62" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="D62" s="2" t="s">
-        <v>185</v>
-      </c>
       <c r="E62" s="5" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="63" spans="1:6" ht="119" x14ac:dyDescent="0.2">
       <c r="A63" s="15"/>
       <c r="B63" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C63" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="D63" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="D63" s="2" t="s">
-        <v>187</v>
-      </c>
       <c r="E63" s="5" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="64" spans="1:6" ht="85" x14ac:dyDescent="0.2">
       <c r="A64" s="15"/>
       <c r="B64" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="D64" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="C64" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="D64" s="4" t="s">
-        <v>189</v>
-      </c>
       <c r="E64" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="65" spans="1:6" ht="102" x14ac:dyDescent="0.2">
       <c r="A65" s="15"/>
       <c r="B65" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C65" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="D65" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="D65" s="2" t="s">
-        <v>196</v>
-      </c>
       <c r="E65" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="F65" s="2" t="s">
         <v>193</v>
-      </c>
-      <c r="F65" s="2" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="66" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A66" s="15"/>
       <c r="B66" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E66" s="5" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="67" spans="1:6" ht="119" x14ac:dyDescent="0.2">
       <c r="A67" s="15"/>
       <c r="B67" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E67" s="5" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="68" spans="1:6" ht="119" x14ac:dyDescent="0.2">
       <c r="A68" s="15"/>
       <c r="B68" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="D68" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="C68" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="D68" s="2" t="s">
-        <v>202</v>
-      </c>
       <c r="E68" s="5" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="69" spans="1:6" ht="119" x14ac:dyDescent="0.2">
       <c r="A69" s="15"/>
       <c r="B69" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E69" s="5" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="70" spans="1:6" ht="119" x14ac:dyDescent="0.2">
       <c r="A70" s="15"/>
       <c r="B70" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C70" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="D70" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="D70" s="2" t="s">
-        <v>205</v>
-      </c>
       <c r="E70" s="5" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="71" spans="1:6" ht="119" x14ac:dyDescent="0.2">
       <c r="A71" s="15"/>
       <c r="B71" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C71" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="D71" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="D71" s="2" t="s">
-        <v>207</v>
-      </c>
       <c r="E71" s="5" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="72" spans="1:6" ht="119" x14ac:dyDescent="0.2">
       <c r="A72" s="15"/>
       <c r="B72" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C72" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="D72" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="D72" s="2" t="s">
-        <v>209</v>
-      </c>
       <c r="E72" s="5" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="73" spans="1:6" ht="119" x14ac:dyDescent="0.2">
       <c r="A73" s="15"/>
       <c r="B73" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C73" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="D73" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="D73" s="2" t="s">
-        <v>211</v>
-      </c>
       <c r="E73" s="5" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="74" spans="1:6" ht="119" x14ac:dyDescent="0.2">
       <c r="A74" s="15"/>
       <c r="B74" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D74" s="3" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E74" s="5" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="75" spans="1:6" ht="119" x14ac:dyDescent="0.2">
       <c r="A75" s="15"/>
       <c r="B75" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C75" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="D75" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="D75" s="2" t="s">
-        <v>213</v>
-      </c>
       <c r="E75" s="5" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="76" spans="1:6" ht="119" x14ac:dyDescent="0.2">
       <c r="A76" s="15"/>
       <c r="B76" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C76" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="D76" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="D76" s="2" t="s">
-        <v>216</v>
-      </c>
       <c r="E76" s="5" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="77" spans="1:6" ht="119" x14ac:dyDescent="0.2">
       <c r="A77" s="15"/>
       <c r="B77" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E77" s="5" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="78" spans="1:6" ht="119" x14ac:dyDescent="0.2">
       <c r="A78" s="15"/>
       <c r="B78" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="C78" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="C78" s="2" t="s">
-        <v>220</v>
-      </c>
       <c r="D78" s="2" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E78" s="5" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="79" spans="1:6" ht="119" x14ac:dyDescent="0.2">
       <c r="A79" s="15"/>
       <c r="B79" s="3" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D79" s="3" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E79" s="13" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F79" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="80" spans="1:6" ht="119" x14ac:dyDescent="0.2">
       <c r="A80" s="15"/>
       <c r="B80" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C80" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="D80" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="D80" s="2" t="s">
-        <v>223</v>
-      </c>
       <c r="E80" s="13" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F80" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="81" spans="1:6" ht="119" x14ac:dyDescent="0.2">
       <c r="A81" s="15"/>
       <c r="B81" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E81" s="13" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F81" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="82" spans="1:6" ht="119" x14ac:dyDescent="0.2">
       <c r="A82" s="15"/>
       <c r="B82" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E82" s="13" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F82" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="83" spans="1:6" ht="119" x14ac:dyDescent="0.2">
       <c r="A83" s="15"/>
       <c r="B83" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E83" s="13" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F83" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="84" spans="1:6" ht="119" x14ac:dyDescent="0.2">
       <c r="A84" s="15"/>
       <c r="B84" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C84" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="D84" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="D84" s="2" t="s">
-        <v>231</v>
-      </c>
       <c r="E84" s="13" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F84" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="85" spans="1:6" ht="119" x14ac:dyDescent="0.2">
       <c r="A85" s="15"/>
       <c r="B85" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E85" s="13" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F85" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="86" spans="1:6" ht="119" x14ac:dyDescent="0.2">
       <c r="A86" s="15"/>
       <c r="B86" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E86" s="13" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F86" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="87" spans="1:6" ht="119" x14ac:dyDescent="0.2">
       <c r="A87" s="15"/>
       <c r="B87" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E87" s="13" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F87" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="88" spans="1:6" ht="119" x14ac:dyDescent="0.2">
       <c r="A88" s="15"/>
       <c r="B88" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C88" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="D88" s="2" t="s">
         <v>235</v>
       </c>
-      <c r="D88" s="2" t="s">
-        <v>236</v>
-      </c>
       <c r="E88" s="13" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F88" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="89" spans="1:6" ht="119" x14ac:dyDescent="0.2">
       <c r="A89" s="15"/>
       <c r="B89" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C89" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="D89" s="3" t="s">
         <v>237</v>
       </c>
-      <c r="D89" s="3" t="s">
-        <v>238</v>
-      </c>
       <c r="E89" s="13" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F89" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="90" spans="1:6" ht="119" x14ac:dyDescent="0.2">
       <c r="A90" s="15"/>
       <c r="B90" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C90" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="D90" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="D90" s="2" t="s">
-        <v>240</v>
-      </c>
       <c r="E90" s="13" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F90" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="91" spans="1:6" ht="119" x14ac:dyDescent="0.2">
       <c r="A91" s="15"/>
       <c r="B91" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E91" s="13" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F91" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="92" spans="1:6" ht="119" x14ac:dyDescent="0.2">
       <c r="A92" s="15"/>
       <c r="B92" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C92" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="D92" s="2" t="s">
         <v>242</v>
       </c>
-      <c r="D92" s="2" t="s">
-        <v>243</v>
-      </c>
       <c r="E92" s="13" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F92" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="93" spans="1:6" ht="119" x14ac:dyDescent="0.2">
       <c r="A93" s="15"/>
       <c r="B93" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C93" s="3" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D93" s="3" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E93" s="13" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F93" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="94" spans="1:6" ht="119" x14ac:dyDescent="0.2">
       <c r="A94" s="15"/>
       <c r="B94" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C94" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="D94" s="2" t="s">
         <v>245</v>
       </c>
-      <c r="D94" s="2" t="s">
-        <v>246</v>
-      </c>
       <c r="E94" s="13" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F94" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="95" spans="1:6" ht="119" x14ac:dyDescent="0.2">
       <c r="A95" s="15"/>
       <c r="B95" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C95" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="D95" s="2" t="s">
         <v>247</v>
       </c>
-      <c r="D95" s="2" t="s">
-        <v>248</v>
-      </c>
       <c r="E95" s="13" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F95" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="96" spans="1:6" ht="119" x14ac:dyDescent="0.2">
       <c r="A96" s="15"/>
       <c r="B96" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C96" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="D96" s="2" t="s">
         <v>249</v>
       </c>
-      <c r="D96" s="2" t="s">
-        <v>250</v>
-      </c>
       <c r="E96" s="13" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F96" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="97" spans="1:6" ht="119" x14ac:dyDescent="0.2">
       <c r="A97" s="15"/>
       <c r="B97" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C97" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="D97" s="2" t="s">
         <v>251</v>
       </c>
-      <c r="D97" s="2" t="s">
-        <v>252</v>
-      </c>
       <c r="E97" s="13" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F97" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="98" spans="1:6" ht="119" x14ac:dyDescent="0.2">
       <c r="A98" s="15"/>
       <c r="B98" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E98" s="13" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F98" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="99" spans="1:6" ht="119" x14ac:dyDescent="0.2">
       <c r="A99" s="15"/>
       <c r="B99" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C99" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="D99" s="2" t="s">
         <v>253</v>
       </c>
-      <c r="D99" s="2" t="s">
-        <v>254</v>
-      </c>
       <c r="E99" s="13" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F99" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="100" spans="1:6" s="11" customFormat="1" ht="120" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A100" s="16"/>
       <c r="B100" s="9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C100" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D100" s="9" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E100" s="14" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F100" s="10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="101" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A101" s="17" t="s">
+        <v>256</v>
+      </c>
+      <c r="B101" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D101" s="2" t="s">
         <v>257</v>
-      </c>
-      <c r="B101" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="C101" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="D101" s="2" t="s">
-        <v>258</v>
       </c>
       <c r="E101" s="2" t="s">
         <v>6</v>
@@ -3030,37 +3027,37 @@
     <row r="102" spans="1:6" ht="119" x14ac:dyDescent="0.2">
       <c r="A102" s="17"/>
       <c r="B102" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C102" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="D102" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="E102" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F102" s="2" t="s">
         <v>260</v>
-      </c>
-      <c r="D102" s="2" t="s">
-        <v>259</v>
-      </c>
-      <c r="E102" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F102" s="2" t="s">
-        <v>261</v>
       </c>
     </row>
     <row r="103" spans="1:6" ht="102" x14ac:dyDescent="0.2">
       <c r="A103" s="17"/>
       <c r="B103" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C103" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D103" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E103" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="D103" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="E103" s="2" t="s">
-        <v>83</v>
-      </c>
       <c r="F103" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>

--- a/docs/scATACpipe_module_references.xlsx
+++ b/docs/scATACpipe_module_references.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kaihu/Projects/workflow/scATACpipe/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC9BF8D3-F6EC-0C4D-8AB4-7868365EDA31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6D484FF-DE86-7542-B16E-6680A686B55E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1200" yWindow="500" windowWidth="25680" windowHeight="16300" xr2:uid="{D5566E01-952C-494C-8CCC-37924E7B856D}"/>
   </bookViews>
@@ -1258,7 +1258,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="112" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A99" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E102" sqref="E102"/>
+      <selection pane="bottomLeft" activeCell="D103" sqref="D103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/docs/scATACpipe_module_references.xlsx
+++ b/docs/scATACpipe_module_references.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kaihu/Projects/workflow/scATACpipe/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6D484FF-DE86-7542-B16E-6680A686B55E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85CCA40C-98FA-684B-937D-389E13CF581B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1200" yWindow="500" windowWidth="25680" windowHeight="16300" xr2:uid="{D5566E01-952C-494C-8CCC-37924E7B856D}"/>
   </bookViews>
@@ -1258,7 +1258,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="112" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A99" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D103" sqref="D103"/>
+      <selection pane="bottomLeft" activeCell="B100" sqref="B100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/docs/scATACpipe_module_references.xlsx
+++ b/docs/scATACpipe_module_references.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kaihu/Projects/workflow/scATACpipe/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85CCA40C-98FA-684B-937D-389E13CF581B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AF18485-7841-7149-895C-A4E6C071AC57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1200" yWindow="500" windowWidth="25680" windowHeight="16300" xr2:uid="{D5566E01-952C-494C-8CCC-37924E7B856D}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="490" uniqueCount="263">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="490" uniqueCount="265">
   <si>
     <t>Module</t>
   </si>
@@ -234,12 +234,6 @@
     <t>ARCHR_GET_CLUSTERING_TSV</t>
   </si>
   <si>
-    <t>FastQC [1]</t>
-  </si>
-  <si>
-    <t>sinto [2]</t>
-  </si>
-  <si>
     <t>[1] Andrews, S. (2010). FastQC:  A Quality Control Tool for High Throughput Sequence Data [Online]. Available online at: http://www.bioinformatics.babraham.ac.uk/projects/fastqc/</t>
   </si>
   <si>
@@ -249,15 +243,6 @@
     <t>[3] https://bmcbioinformatics.biomedcentral.com/articles/10.1186/s12859-021-04267-5</t>
   </si>
   <si>
-    <t>cutadapt [5]</t>
-  </si>
-  <si>
-    <t>bwa [6]</t>
-  </si>
-  <si>
-    <t>qualimap [8]</t>
-  </si>
-  <si>
     <t>cellranger-atac [9]</t>
   </si>
   <si>
@@ -279,9 +264,6 @@
     <t>generate MultiQC report</t>
   </si>
   <si>
-    <t>MultiQC [11], custom Multiqc plugins</t>
-  </si>
-  <si>
     <t>hukai916/multiqc:0.1</t>
   </si>
   <si>
@@ -348,9 +330,6 @@
     <t>PREP_GENOME</t>
   </si>
   <si>
-    <t>SAMtools [7] and bash</t>
-  </si>
-  <si>
     <t>Cleanup genome file by extracting the primary genome and prepending "chr" to each contig.</t>
   </si>
   <si>
@@ -369,27 +348,18 @@
     <t>FILTER_BAM</t>
   </si>
   <si>
-    <t>SAMtools [7] and bash (awk)</t>
-  </si>
-  <si>
     <t>Filter out unqualified reads from BAM files.</t>
   </si>
   <si>
     <t>COMBINE_BAM</t>
   </si>
   <si>
-    <t>SAMtools [7]</t>
-  </si>
-  <si>
     <t>Combine BAMs for each sample.</t>
   </si>
   <si>
     <t>DEDUP_BAM</t>
   </si>
   <si>
-    <t>sinto [2] and custom Python script</t>
-  </si>
-  <si>
     <t>hukai916/sinto_kai:0.3</t>
   </si>
   <si>
@@ -414,9 +384,6 @@
     <t>Correct barcodes with Pheniqs and add barcode to FASTQ.</t>
   </si>
   <si>
-    <t>Pheniqs [3], custom Python scripts</t>
-  </si>
-  <si>
     <t>TAG_BAM</t>
   </si>
   <si>
@@ -456,9 +423,6 @@
     <t>Cleanup GTF file by: prepending "chr"; sort by gene_id; add "gene" column if not available; make sure GTF contigs is a subset of genome.</t>
   </si>
   <si>
-    <t>gffread [12], custom Python scripts</t>
-  </si>
-  <si>
     <t>[12] Pertea, G., &amp; Pertea, M. (2020). GFF Utilities: GffRead and GffCompare. F1000Research, 9, ISCB Comm J-304. https://doi.org/10.12688/f1000research.23297.2</t>
   </si>
   <si>
@@ -471,9 +435,6 @@
     <t>FILTER_CELL</t>
   </si>
   <si>
-    <t>SAMtools [7], custom Python scripts</t>
-  </si>
-  <si>
     <t>Filter fragment and BAM file according to valid cells from filtered_peak_bc_matrix/barcodes.tsv (cellranger_atac_count output).</t>
   </si>
   <si>
@@ -495,9 +456,6 @@
     <t>CHROMAP_ATAC</t>
   </si>
   <si>
-    <t>Chromap [13]</t>
-  </si>
-  <si>
     <t>[13] Zhang, H., Song, L., Wang, X. et al. Fast alignment and preprocessing of chromatin profiles with Chromap. Nat Commun 12, 6566 (2021). https://doi.org/10.1038/s41467-021-26865-w</t>
   </si>
   <si>
@@ -618,9 +576,6 @@
     <t>[14] Thibodeau, A., Eroglu, A., McGinnis, C.S. et al. AMULET: a novel read count-based method for effective multiplet detection from single nucleus ATAC-seq data. Genome Biol 22, 252 (2021). https://doi.org/10.1186/s13059-021-02469-x</t>
   </si>
   <si>
-    <t>AMULET [14]</t>
-  </si>
-  <si>
     <t>Detect doublets using AMULET.</t>
   </si>
   <si>
@@ -811,9 +766,6 @@
   </si>
   <si>
     <t>Split bam files according to clusterings.</t>
-  </si>
-  <si>
-    <t>SAMtools [7], sinto [2]</t>
   </si>
   <si>
     <t>[7] Li, H., Handsaker, B., Wysoker, A., Fennell, T., Ruan, J., Homer, N., Marth, G., Abecasis, G., &amp; Durbin, R. (2009). The Sequence Alignment/Map format and SAMtools. Bioinformatics, 25(16), 2078–2079. https://doi.org/10.1093/bioinformatics/btp352
@@ -824,6 +776,60 @@
   </si>
   <si>
     <t>wget, custom Python script</t>
+  </si>
+  <si>
+    <t>FastQC (v0.11.9) [1]</t>
+  </si>
+  <si>
+    <t>sinto (v0.7.5) [2]</t>
+  </si>
+  <si>
+    <t>sinto (v0.7.5) [2] and custom Python script</t>
+  </si>
+  <si>
+    <t>cutadapt (v3.4) [5]</t>
+  </si>
+  <si>
+    <t>SAMtools (v1.11) [7] and bash</t>
+  </si>
+  <si>
+    <t>SAMtools (v1.11) [7] and bash (awk)</t>
+  </si>
+  <si>
+    <t>SAMtools (v1.11) [7]</t>
+  </si>
+  <si>
+    <t>SAMtools (v1.11) [7], custom Python scripts</t>
+  </si>
+  <si>
+    <t>SAMtools (v1.11) [7], sinto (v0.7.5) [2]</t>
+  </si>
+  <si>
+    <t>bwa (v0.7.17) [6]</t>
+  </si>
+  <si>
+    <t>Pheniqs (v2.1.0) [3], custom Python scripts</t>
+  </si>
+  <si>
+    <t>qualimap (v2.2.2) [8]</t>
+  </si>
+  <si>
+    <t>gffread (v0.12.1) [12], custom Python scripts</t>
+  </si>
+  <si>
+    <t>gffread (v.0.12.1) [12], custom Python scripts</t>
+  </si>
+  <si>
+    <t>Chromap (v0.1.4) [13]</t>
+  </si>
+  <si>
+    <t>MultiQC (v1.11) [11], custom Multiqc plugins</t>
+  </si>
+  <si>
+    <t>AMULET (v1.1) [14]</t>
+  </si>
+  <si>
+    <t>hukai916/scatacpipe_downstream:0.2 (constructed using a custom ArchR built based on v1.0.1: https://github.com/hukai916/ArchR-1)</t>
   </si>
 </sst>
 </file>
@@ -1257,8 +1263,8 @@
   <dimension ref="A1:F103"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="112" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A99" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B100" sqref="B100"/>
+      <pane ySplit="1" topLeftCell="A49" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E54" sqref="E54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1280,7 +1286,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="D1" s="6" t="s">
         <v>2</v>
@@ -1300,28 +1306,28 @@
         <v>4</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>66</v>
+        <v>247</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="E2" s="7" t="s">
         <v>6</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="68" x14ac:dyDescent="0.2">
       <c r="A3" s="15"/>
       <c r="B3" s="7" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="E3" s="7" t="s">
         <v>24</v>
@@ -1331,13 +1337,13 @@
     <row r="4" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A4" s="15"/>
       <c r="B4" s="7" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>24</v>
@@ -1347,13 +1353,13 @@
     <row r="5" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A5" s="15"/>
       <c r="B5" s="7" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>67</v>
+        <v>248</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>24</v>
@@ -1366,16 +1372,16 @@
         <v>8</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>67</v>
+        <v>248</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>24</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="68" x14ac:dyDescent="0.2">
@@ -1384,28 +1390,28 @@
         <v>11</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>71</v>
+        <v>250</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>19</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A8" s="15"/>
       <c r="B8" s="7" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>262</v>
+        <v>246</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>21</v>
@@ -1415,13 +1421,13 @@
     <row r="9" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A9" s="15"/>
       <c r="B9" s="7" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>262</v>
+        <v>246</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>21</v>
@@ -1431,19 +1437,19 @@
     <row r="10" spans="1:6" ht="102" x14ac:dyDescent="0.2">
       <c r="A10" s="15"/>
       <c r="B10" s="7" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>104</v>
+        <v>251</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>20</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="85" x14ac:dyDescent="0.2">
@@ -1452,16 +1458,16 @@
         <v>12</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>72</v>
+        <v>256</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>20</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="85" x14ac:dyDescent="0.2">
@@ -1470,103 +1476,103 @@
         <v>13</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>72</v>
+        <v>256</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>20</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="102" x14ac:dyDescent="0.2">
       <c r="A13" s="15"/>
       <c r="B13" s="7" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>111</v>
+        <v>252</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>22</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="102" x14ac:dyDescent="0.2">
       <c r="A14" s="15"/>
       <c r="B14" s="7" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>114</v>
+        <v>253</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>22</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="68" x14ac:dyDescent="0.2">
       <c r="A15" s="15"/>
       <c r="B15" s="7" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>117</v>
+        <v>249</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="85" x14ac:dyDescent="0.2">
       <c r="A16" s="15"/>
       <c r="B16" s="7" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>18</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A17" s="15"/>
       <c r="B17" s="7" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="C17" s="7" t="s">
         <v>16</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>261</v>
+        <v>245</v>
       </c>
       <c r="F17" s="7"/>
     </row>
@@ -1579,10 +1585,10 @@
         <v>16</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>261</v>
+        <v>245</v>
       </c>
       <c r="F18" s="7"/>
     </row>
@@ -1592,34 +1598,34 @@
         <v>10</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>126</v>
+        <v>257</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A20" s="15"/>
       <c r="B20" s="7" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>67</v>
+        <v>248</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>24</v>
       </c>
       <c r="F20" s="8" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="119" x14ac:dyDescent="0.2">
@@ -1628,16 +1634,16 @@
         <v>14</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>73</v>
+        <v>258</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>130</v>
+        <v>119</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>23</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
     </row>
     <row r="22" spans="1:6" s="11" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -1646,16 +1652,16 @@
         <v>15</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>67</v>
+        <v>248</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
       <c r="E22" s="9" t="s">
         <v>24</v>
       </c>
       <c r="F22" s="10" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="51" x14ac:dyDescent="0.2">
@@ -1663,13 +1669,13 @@
         <v>25</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>134</v>
+        <v>123</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>21</v>
@@ -1678,13 +1684,13 @@
     <row r="24" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A24" s="15"/>
       <c r="B24" s="7" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>262</v>
+        <v>246</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>21</v>
@@ -1694,13 +1700,13 @@
     <row r="25" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A25" s="15"/>
       <c r="B25" s="7" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>262</v>
+        <v>246</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="E25" s="7" t="s">
         <v>21</v>
@@ -1713,10 +1719,10 @@
         <v>26</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>262</v>
+        <v>246</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="E26" s="3" t="s">
         <v>21</v>
@@ -1725,13 +1731,13 @@
     <row r="27" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A27" s="15"/>
       <c r="B27" s="2" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>262</v>
+        <v>246</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
       <c r="E27" s="3" t="s">
         <v>21</v>
@@ -1740,37 +1746,37 @@
     <row r="28" spans="1:6" ht="102" x14ac:dyDescent="0.2">
       <c r="A28" s="15"/>
       <c r="B28" s="7" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>104</v>
+        <v>251</v>
       </c>
       <c r="D28" s="7" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="E28" s="7" t="s">
         <v>20</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="85" x14ac:dyDescent="0.2">
       <c r="A29" s="15"/>
       <c r="B29" s="7" t="s">
-        <v>138</v>
+        <v>127</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>140</v>
+        <v>259</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="E29" s="7" t="s">
         <v>29</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="34" x14ac:dyDescent="0.2">
@@ -1779,16 +1785,16 @@
         <v>27</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>30</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
     </row>
     <row r="31" spans="1:6" s="12" customFormat="1" ht="34" x14ac:dyDescent="0.2">
@@ -1797,48 +1803,48 @@
         <v>28</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="D31" s="7" t="s">
-        <v>143</v>
+        <v>131</v>
       </c>
       <c r="E31" s="7" t="s">
         <v>30</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
     </row>
     <row r="32" spans="1:6" s="11" customFormat="1" ht="103" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A32" s="16"/>
       <c r="B32" s="9" t="s">
-        <v>144</v>
+        <v>132</v>
       </c>
       <c r="C32" s="9" t="s">
-        <v>145</v>
+        <v>254</v>
       </c>
       <c r="D32" s="9" t="s">
-        <v>146</v>
+        <v>133</v>
       </c>
       <c r="E32" s="9" t="s">
         <v>24</v>
       </c>
       <c r="F32" s="9" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A33" s="15" t="s">
-        <v>147</v>
+        <v>134</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>134</v>
+        <v>123</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>21</v>
@@ -1847,13 +1853,13 @@
     <row r="34" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A34" s="15"/>
       <c r="B34" s="2" t="s">
-        <v>148</v>
+        <v>135</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>149</v>
+        <v>136</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>21</v>
@@ -1862,31 +1868,31 @@
     <row r="35" spans="1:6" ht="85" x14ac:dyDescent="0.2">
       <c r="A35" s="15"/>
       <c r="B35" s="2" t="s">
-        <v>150</v>
+        <v>137</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="E35" s="2" t="s">
         <v>18</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A36" s="15"/>
       <c r="B36" s="7" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>262</v>
+        <v>246</v>
       </c>
       <c r="D36" s="7" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="E36" s="7" t="s">
         <v>21</v>
@@ -1896,13 +1902,13 @@
     <row r="37" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A37" s="15"/>
       <c r="B37" s="7" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>262</v>
+        <v>246</v>
       </c>
       <c r="D37" s="7" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="E37" s="7" t="s">
         <v>21</v>
@@ -1915,10 +1921,10 @@
         <v>26</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>262</v>
+        <v>246</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="E38" s="3" t="s">
         <v>21</v>
@@ -1927,13 +1933,13 @@
     <row r="39" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A39" s="15"/>
       <c r="B39" s="2" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>262</v>
+        <v>246</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
       <c r="E39" s="3" t="s">
         <v>21</v>
@@ -1942,85 +1948,85 @@
     <row r="40" spans="1:6" ht="102" x14ac:dyDescent="0.2">
       <c r="A40" s="15"/>
       <c r="B40" s="7" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>104</v>
+        <v>251</v>
       </c>
       <c r="D40" s="7" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="E40" s="7" t="s">
         <v>20</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="85" x14ac:dyDescent="0.2">
       <c r="A41" s="15"/>
       <c r="B41" s="7" t="s">
-        <v>138</v>
+        <v>127</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>140</v>
+        <v>260</v>
       </c>
       <c r="D41" s="7" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="E41" s="7" t="s">
         <v>29</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="85" x14ac:dyDescent="0.2">
       <c r="A42" s="15"/>
       <c r="B42" s="2" t="s">
-        <v>151</v>
+        <v>138</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>153</v>
+        <v>261</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>156</v>
+        <v>142</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>155</v>
+        <v>141</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>154</v>
+        <v>140</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="85" x14ac:dyDescent="0.2">
       <c r="A43" s="15"/>
       <c r="B43" s="2" t="s">
-        <v>152</v>
+        <v>139</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>153</v>
+        <v>261</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>157</v>
+        <v>143</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>155</v>
+        <v>141</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>154</v>
+        <v>140</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A44" s="15"/>
       <c r="B44" s="2" t="s">
-        <v>158</v>
+        <v>144</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>159</v>
+        <v>145</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>160</v>
+        <v>146</v>
       </c>
       <c r="E44" s="2" t="s">
         <v>22</v>
@@ -2029,28 +2035,28 @@
     <row r="45" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A45" s="15"/>
       <c r="B45" s="2" t="s">
-        <v>161</v>
+        <v>147</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>261</v>
+        <v>245</v>
       </c>
     </row>
     <row r="46" spans="1:6" s="11" customFormat="1" ht="35" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A46" s="16"/>
       <c r="B46" s="9" t="s">
-        <v>162</v>
+        <v>148</v>
       </c>
       <c r="C46" s="9" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="D46" s="9" t="s">
-        <v>163</v>
+        <v>149</v>
       </c>
       <c r="E46" s="9" t="s">
         <v>24</v>
@@ -2060,13 +2066,13 @@
     <row r="47" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A47" s="15"/>
       <c r="B47" s="7" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="C47" s="7" t="s">
-        <v>262</v>
+        <v>246</v>
       </c>
       <c r="D47" s="7" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="E47" s="7" t="s">
         <v>21</v>
@@ -2076,13 +2082,13 @@
     <row r="48" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A48" s="15"/>
       <c r="B48" s="7" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="C48" s="7" t="s">
-        <v>262</v>
+        <v>246</v>
       </c>
       <c r="D48" s="7" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="E48" s="7" t="s">
         <v>21</v>
@@ -2095,10 +2101,10 @@
         <v>26</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>262</v>
+        <v>246</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="E49" s="3" t="s">
         <v>21</v>
@@ -2107,13 +2113,13 @@
     <row r="50" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A50" s="15"/>
       <c r="B50" s="2" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>262</v>
+        <v>246</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
       <c r="E50" s="3" t="s">
         <v>21</v>
@@ -2122,55 +2128,55 @@
     <row r="51" spans="1:6" ht="102" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="15"/>
       <c r="B51" s="7" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="C51" s="7" t="s">
-        <v>104</v>
+        <v>251</v>
       </c>
       <c r="D51" s="7" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="E51" s="7" t="s">
         <v>20</v>
       </c>
       <c r="F51" s="7" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
     </row>
     <row r="52" spans="1:6" ht="85" x14ac:dyDescent="0.2">
       <c r="A52" s="15"/>
       <c r="B52" s="7" t="s">
-        <v>138</v>
+        <v>127</v>
       </c>
       <c r="C52" s="7" t="s">
-        <v>140</v>
+        <v>260</v>
       </c>
       <c r="D52" s="7" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="E52" s="7" t="s">
         <v>29</v>
       </c>
       <c r="F52" s="7" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
     </row>
     <row r="53" spans="1:6" ht="119" x14ac:dyDescent="0.2">
       <c r="A53" s="15"/>
       <c r="B53" s="2" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>166</v>
+        <v>152</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>164</v>
+        <v>150</v>
       </c>
       <c r="E53" s="5" t="s">
-        <v>165</v>
+        <v>264</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
     </row>
     <row r="54" spans="1:6" ht="119" x14ac:dyDescent="0.2">
@@ -2179,16 +2185,16 @@
         <v>32</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>178</v>
+        <v>164</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>167</v>
+        <v>153</v>
       </c>
       <c r="E54" s="5" t="s">
-        <v>165</v>
+        <v>151</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
     </row>
     <row r="55" spans="1:6" ht="119" x14ac:dyDescent="0.2">
@@ -2197,16 +2203,16 @@
         <v>34</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>179</v>
+        <v>165</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>168</v>
+        <v>154</v>
       </c>
       <c r="E55" s="5" t="s">
-        <v>165</v>
+        <v>151</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
     </row>
     <row r="56" spans="1:6" ht="119" x14ac:dyDescent="0.2">
@@ -2215,34 +2221,34 @@
         <v>35</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>179</v>
+        <v>165</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>169</v>
+        <v>155</v>
       </c>
       <c r="E56" s="5" t="s">
-        <v>165</v>
+        <v>151</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
     </row>
     <row r="57" spans="1:6" ht="119" x14ac:dyDescent="0.2">
       <c r="A57" s="15"/>
       <c r="B57" s="2" t="s">
-        <v>170</v>
+        <v>156</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>180</v>
+        <v>166</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>171</v>
+        <v>157</v>
       </c>
       <c r="E57" s="5" t="s">
-        <v>165</v>
+        <v>151</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
     </row>
     <row r="58" spans="1:6" ht="119" x14ac:dyDescent="0.2">
@@ -2251,16 +2257,16 @@
         <v>31</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>166</v>
+        <v>152</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>172</v>
+        <v>158</v>
       </c>
       <c r="E58" s="5" t="s">
-        <v>165</v>
+        <v>151</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
     </row>
     <row r="59" spans="1:6" ht="119" x14ac:dyDescent="0.2">
@@ -2269,94 +2275,94 @@
         <v>33</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>179</v>
+        <v>165</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>173</v>
+        <v>159</v>
       </c>
       <c r="E59" s="5" t="s">
-        <v>165</v>
+        <v>151</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
     </row>
     <row r="60" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A60" s="15"/>
       <c r="B60" s="2" t="s">
-        <v>174</v>
+        <v>160</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>181</v>
+        <v>167</v>
       </c>
       <c r="E60" s="5" t="s">
-        <v>261</v>
+        <v>245</v>
       </c>
     </row>
     <row r="61" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A61" s="15"/>
       <c r="B61" s="2" t="s">
-        <v>175</v>
+        <v>161</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>182</v>
+        <v>168</v>
       </c>
       <c r="E61" s="5" t="s">
-        <v>261</v>
+        <v>245</v>
       </c>
     </row>
     <row r="62" spans="1:6" ht="119" x14ac:dyDescent="0.2">
       <c r="A62" s="15"/>
       <c r="B62" s="2" t="s">
-        <v>176</v>
+        <v>162</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>183</v>
+        <v>169</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>184</v>
+        <v>170</v>
       </c>
       <c r="E62" s="5" t="s">
-        <v>261</v>
+        <v>245</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
     </row>
     <row r="63" spans="1:6" ht="119" x14ac:dyDescent="0.2">
       <c r="A63" s="15"/>
       <c r="B63" s="2" t="s">
-        <v>177</v>
+        <v>163</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>185</v>
+        <v>171</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>186</v>
+        <v>172</v>
       </c>
       <c r="E63" s="5" t="s">
-        <v>261</v>
+        <v>245</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
     </row>
     <row r="64" spans="1:6" ht="85" x14ac:dyDescent="0.2">
       <c r="A64" s="15"/>
       <c r="B64" s="2" t="s">
-        <v>187</v>
+        <v>173</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>159</v>
+        <v>145</v>
       </c>
       <c r="D64" s="4" t="s">
-        <v>188</v>
+        <v>174</v>
       </c>
       <c r="E64" s="5" t="s">
         <v>29</v>
@@ -2365,70 +2371,70 @@
     <row r="65" spans="1:6" ht="102" x14ac:dyDescent="0.2">
       <c r="A65" s="15"/>
       <c r="B65" s="2" t="s">
-        <v>189</v>
+        <v>175</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>194</v>
+        <v>263</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>195</v>
+        <v>180</v>
       </c>
       <c r="E65" s="5" t="s">
-        <v>192</v>
+        <v>178</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>193</v>
+        <v>179</v>
       </c>
     </row>
     <row r="66" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A66" s="15"/>
       <c r="B66" s="2" t="s">
-        <v>190</v>
+        <v>176</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>196</v>
+        <v>181</v>
       </c>
       <c r="E66" s="5" t="s">
-        <v>192</v>
+        <v>178</v>
       </c>
     </row>
     <row r="67" spans="1:6" ht="119" x14ac:dyDescent="0.2">
       <c r="A67" s="15"/>
       <c r="B67" s="2" t="s">
-        <v>191</v>
+        <v>177</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>199</v>
+        <v>184</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>197</v>
+        <v>182</v>
       </c>
       <c r="E67" s="5" t="s">
-        <v>165</v>
+        <v>151</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
     </row>
     <row r="68" spans="1:6" ht="119" x14ac:dyDescent="0.2">
       <c r="A68" s="15"/>
       <c r="B68" s="2" t="s">
-        <v>200</v>
+        <v>185</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>199</v>
+        <v>184</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>201</v>
+        <v>186</v>
       </c>
       <c r="E68" s="5" t="s">
-        <v>165</v>
+        <v>151</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
     </row>
     <row r="69" spans="1:6" ht="119" x14ac:dyDescent="0.2">
@@ -2437,16 +2443,16 @@
         <v>37</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>198</v>
+        <v>183</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>202</v>
+        <v>187</v>
       </c>
       <c r="E69" s="5" t="s">
-        <v>165</v>
+        <v>151</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
     </row>
     <row r="70" spans="1:6" ht="119" x14ac:dyDescent="0.2">
@@ -2455,16 +2461,16 @@
         <v>36</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>203</v>
+        <v>188</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>204</v>
+        <v>189</v>
       </c>
       <c r="E70" s="5" t="s">
-        <v>165</v>
+        <v>151</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
     </row>
     <row r="71" spans="1:6" ht="119" x14ac:dyDescent="0.2">
@@ -2473,16 +2479,16 @@
         <v>38</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>205</v>
+        <v>190</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>206</v>
+        <v>191</v>
       </c>
       <c r="E71" s="5" t="s">
-        <v>165</v>
+        <v>151</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
     </row>
     <row r="72" spans="1:6" ht="119" x14ac:dyDescent="0.2">
@@ -2491,16 +2497,16 @@
         <v>39</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>207</v>
+        <v>192</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>208</v>
+        <v>193</v>
       </c>
       <c r="E72" s="5" t="s">
-        <v>165</v>
+        <v>151</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
     </row>
     <row r="73" spans="1:6" ht="119" x14ac:dyDescent="0.2">
@@ -2509,16 +2515,16 @@
         <v>40</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>209</v>
+        <v>194</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>210</v>
+        <v>195</v>
       </c>
       <c r="E73" s="5" t="s">
-        <v>165</v>
+        <v>151</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
     </row>
     <row r="74" spans="1:6" ht="119" x14ac:dyDescent="0.2">
@@ -2527,16 +2533,16 @@
         <v>41</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>211</v>
+        <v>196</v>
       </c>
       <c r="D74" s="3" t="s">
-        <v>213</v>
+        <v>198</v>
       </c>
       <c r="E74" s="5" t="s">
-        <v>165</v>
+        <v>151</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
     </row>
     <row r="75" spans="1:6" ht="119" x14ac:dyDescent="0.2">
@@ -2545,16 +2551,16 @@
         <v>43</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>211</v>
+        <v>196</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>212</v>
+        <v>197</v>
       </c>
       <c r="E75" s="5" t="s">
-        <v>165</v>
+        <v>151</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
     </row>
     <row r="76" spans="1:6" ht="119" x14ac:dyDescent="0.2">
@@ -2563,16 +2569,16 @@
         <v>42</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>214</v>
+        <v>199</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>215</v>
+        <v>200</v>
       </c>
       <c r="E76" s="5" t="s">
-        <v>165</v>
+        <v>151</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
     </row>
     <row r="77" spans="1:6" ht="119" x14ac:dyDescent="0.2">
@@ -2581,52 +2587,52 @@
         <v>44</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>217</v>
+        <v>202</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>216</v>
+        <v>201</v>
       </c>
       <c r="E77" s="5" t="s">
-        <v>165</v>
+        <v>151</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
     </row>
     <row r="78" spans="1:6" ht="119" x14ac:dyDescent="0.2">
       <c r="A78" s="15"/>
       <c r="B78" s="2" t="s">
-        <v>218</v>
+        <v>203</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>219</v>
+        <v>204</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>223</v>
+        <v>208</v>
       </c>
       <c r="E78" s="5" t="s">
-        <v>165</v>
+        <v>151</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
     </row>
     <row r="79" spans="1:6" ht="119" x14ac:dyDescent="0.2">
       <c r="A79" s="15"/>
       <c r="B79" s="3" t="s">
-        <v>220</v>
+        <v>205</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>219</v>
+        <v>204</v>
       </c>
       <c r="D79" s="3" t="s">
-        <v>224</v>
+        <v>209</v>
       </c>
       <c r="E79" s="13" t="s">
-        <v>165</v>
+        <v>151</v>
       </c>
       <c r="F79" s="3" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
     </row>
     <row r="80" spans="1:6" ht="119" x14ac:dyDescent="0.2">
@@ -2635,16 +2641,16 @@
         <v>45</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>221</v>
+        <v>206</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>222</v>
+        <v>207</v>
       </c>
       <c r="E80" s="13" t="s">
-        <v>165</v>
+        <v>151</v>
       </c>
       <c r="F80" s="3" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
     </row>
     <row r="81" spans="1:6" ht="119" x14ac:dyDescent="0.2">
@@ -2653,16 +2659,16 @@
         <v>46</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>226</v>
+        <v>211</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>225</v>
+        <v>210</v>
       </c>
       <c r="E81" s="13" t="s">
-        <v>165</v>
+        <v>151</v>
       </c>
       <c r="F81" s="3" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
     </row>
     <row r="82" spans="1:6" ht="119" x14ac:dyDescent="0.2">
@@ -2671,16 +2677,16 @@
         <v>47</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>219</v>
+        <v>204</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>227</v>
+        <v>212</v>
       </c>
       <c r="E82" s="13" t="s">
-        <v>165</v>
+        <v>151</v>
       </c>
       <c r="F82" s="3" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
     </row>
     <row r="83" spans="1:6" ht="119" x14ac:dyDescent="0.2">
@@ -2689,16 +2695,16 @@
         <v>48</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>219</v>
+        <v>204</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>228</v>
+        <v>213</v>
       </c>
       <c r="E83" s="13" t="s">
-        <v>165</v>
+        <v>151</v>
       </c>
       <c r="F83" s="3" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
     </row>
     <row r="84" spans="1:6" ht="119" x14ac:dyDescent="0.2">
@@ -2707,16 +2713,16 @@
         <v>49</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>229</v>
+        <v>214</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>230</v>
+        <v>215</v>
       </c>
       <c r="E84" s="13" t="s">
-        <v>165</v>
+        <v>151</v>
       </c>
       <c r="F84" s="3" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
     </row>
     <row r="85" spans="1:6" ht="119" x14ac:dyDescent="0.2">
@@ -2725,16 +2731,16 @@
         <v>50</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>229</v>
+        <v>214</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>233</v>
+        <v>218</v>
       </c>
       <c r="E85" s="13" t="s">
-        <v>165</v>
+        <v>151</v>
       </c>
       <c r="F85" s="3" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
     </row>
     <row r="86" spans="1:6" ht="119" x14ac:dyDescent="0.2">
@@ -2743,16 +2749,16 @@
         <v>51</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>219</v>
+        <v>204</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>231</v>
+        <v>216</v>
       </c>
       <c r="E86" s="13" t="s">
-        <v>165</v>
+        <v>151</v>
       </c>
       <c r="F86" s="3" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
     </row>
     <row r="87" spans="1:6" ht="119" x14ac:dyDescent="0.2">
@@ -2761,16 +2767,16 @@
         <v>52</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>219</v>
+        <v>204</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>232</v>
+        <v>217</v>
       </c>
       <c r="E87" s="13" t="s">
-        <v>165</v>
+        <v>151</v>
       </c>
       <c r="F87" s="3" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
     </row>
     <row r="88" spans="1:6" ht="119" x14ac:dyDescent="0.2">
@@ -2779,16 +2785,16 @@
         <v>53</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>234</v>
+        <v>219</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>235</v>
+        <v>220</v>
       </c>
       <c r="E88" s="13" t="s">
-        <v>165</v>
+        <v>151</v>
       </c>
       <c r="F88" s="3" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
     </row>
     <row r="89" spans="1:6" ht="119" x14ac:dyDescent="0.2">
@@ -2797,16 +2803,16 @@
         <v>54</v>
       </c>
       <c r="C89" s="3" t="s">
-        <v>236</v>
+        <v>221</v>
       </c>
       <c r="D89" s="3" t="s">
-        <v>237</v>
+        <v>222</v>
       </c>
       <c r="E89" s="13" t="s">
-        <v>165</v>
+        <v>151</v>
       </c>
       <c r="F89" s="3" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
     </row>
     <row r="90" spans="1:6" ht="119" x14ac:dyDescent="0.2">
@@ -2815,16 +2821,16 @@
         <v>55</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>238</v>
+        <v>223</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>239</v>
+        <v>224</v>
       </c>
       <c r="E90" s="13" t="s">
-        <v>165</v>
+        <v>151</v>
       </c>
       <c r="F90" s="3" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
     </row>
     <row r="91" spans="1:6" ht="119" x14ac:dyDescent="0.2">
@@ -2833,16 +2839,16 @@
         <v>56</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>238</v>
+        <v>223</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>240</v>
+        <v>225</v>
       </c>
       <c r="E91" s="13" t="s">
-        <v>165</v>
+        <v>151</v>
       </c>
       <c r="F91" s="3" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
     </row>
     <row r="92" spans="1:6" ht="119" x14ac:dyDescent="0.2">
@@ -2851,16 +2857,16 @@
         <v>57</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>241</v>
+        <v>226</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>242</v>
+        <v>227</v>
       </c>
       <c r="E92" s="13" t="s">
-        <v>165</v>
+        <v>151</v>
       </c>
       <c r="F92" s="3" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
     </row>
     <row r="93" spans="1:6" ht="119" x14ac:dyDescent="0.2">
@@ -2869,16 +2875,16 @@
         <v>58</v>
       </c>
       <c r="C93" s="3" t="s">
-        <v>241</v>
+        <v>226</v>
       </c>
       <c r="D93" s="3" t="s">
-        <v>243</v>
+        <v>228</v>
       </c>
       <c r="E93" s="13" t="s">
-        <v>165</v>
+        <v>151</v>
       </c>
       <c r="F93" s="3" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
     </row>
     <row r="94" spans="1:6" ht="119" x14ac:dyDescent="0.2">
@@ -2887,16 +2893,16 @@
         <v>59</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>244</v>
+        <v>229</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>245</v>
+        <v>230</v>
       </c>
       <c r="E94" s="13" t="s">
-        <v>165</v>
+        <v>151</v>
       </c>
       <c r="F94" s="3" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
     </row>
     <row r="95" spans="1:6" ht="119" x14ac:dyDescent="0.2">
@@ -2905,16 +2911,16 @@
         <v>60</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>246</v>
+        <v>231</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>247</v>
+        <v>232</v>
       </c>
       <c r="E95" s="13" t="s">
-        <v>165</v>
+        <v>151</v>
       </c>
       <c r="F95" s="3" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
     </row>
     <row r="96" spans="1:6" ht="119" x14ac:dyDescent="0.2">
@@ -2923,16 +2929,16 @@
         <v>61</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>248</v>
+        <v>233</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>249</v>
+        <v>234</v>
       </c>
       <c r="E96" s="13" t="s">
-        <v>165</v>
+        <v>151</v>
       </c>
       <c r="F96" s="3" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
     </row>
     <row r="97" spans="1:6" ht="119" x14ac:dyDescent="0.2">
@@ -2941,16 +2947,16 @@
         <v>62</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>250</v>
+        <v>235</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>251</v>
+        <v>236</v>
       </c>
       <c r="E97" s="13" t="s">
-        <v>165</v>
+        <v>151</v>
       </c>
       <c r="F97" s="3" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
     </row>
     <row r="98" spans="1:6" ht="119" x14ac:dyDescent="0.2">
@@ -2959,16 +2965,16 @@
         <v>63</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>250</v>
+        <v>235</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>254</v>
+        <v>239</v>
       </c>
       <c r="E98" s="13" t="s">
-        <v>165</v>
+        <v>151</v>
       </c>
       <c r="F98" s="3" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
     </row>
     <row r="99" spans="1:6" ht="119" x14ac:dyDescent="0.2">
@@ -2977,16 +2983,16 @@
         <v>64</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>252</v>
+        <v>237</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>253</v>
+        <v>238</v>
       </c>
       <c r="E99" s="13" t="s">
-        <v>165</v>
+        <v>151</v>
       </c>
       <c r="F99" s="3" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
     </row>
     <row r="100" spans="1:6" s="11" customFormat="1" ht="120" thickBot="1" x14ac:dyDescent="0.25">
@@ -2998,27 +3004,27 @@
         <v>16</v>
       </c>
       <c r="D100" s="9" t="s">
-        <v>255</v>
+        <v>240</v>
       </c>
       <c r="E100" s="14" t="s">
-        <v>165</v>
+        <v>151</v>
       </c>
       <c r="F100" s="10" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
     </row>
     <row r="101" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A101" s="17" t="s">
-        <v>256</v>
+        <v>241</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>257</v>
+        <v>242</v>
       </c>
       <c r="E101" s="2" t="s">
         <v>6</v>
@@ -3027,37 +3033,37 @@
     <row r="102" spans="1:6" ht="119" x14ac:dyDescent="0.2">
       <c r="A102" s="17"/>
       <c r="B102" s="2" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>258</v>
+        <v>243</v>
       </c>
       <c r="E102" s="5" t="s">
         <v>24</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>260</v>
+        <v>244</v>
       </c>
     </row>
     <row r="103" spans="1:6" ht="102" x14ac:dyDescent="0.2">
       <c r="A103" s="17"/>
       <c r="B103" s="2" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>81</v>
+        <v>262</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="F103" s="2" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
     </row>
   </sheetData>

--- a/docs/scATACpipe_module_references.xlsx
+++ b/docs/scATACpipe_module_references.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10313"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10520"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kaihu/Projects/workflow/scATACpipe/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E33A05C9-5384-634B-B101-999592416B70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62942806-A961-9A47-AAA0-8E6FEA6B4647}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1180" yWindow="2980" windowWidth="25680" windowHeight="16300" xr2:uid="{D5566E01-952C-494C-8CCC-37924E7B856D}"/>
+    <workbookView xWindow="1200" yWindow="500" windowWidth="25680" windowHeight="16300" xr2:uid="{D5566E01-952C-494C-8CCC-37924E7B856D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -354,9 +354,6 @@
     <t>Combine BAMs for each sample.</t>
   </si>
   <si>
-    <t>DEDUP_BAM</t>
-  </si>
-  <si>
     <t>hukai916/sinto_kai:0.3</t>
   </si>
   <si>
@@ -848,6 +845,9 @@
   </si>
   <si>
     <t>Performs validation of input fragment csv files.</t>
+  </si>
+  <si>
+    <t>DEDUP_BAM/DEDUP_BAM2</t>
   </si>
 </sst>
 </file>
@@ -1284,8 +1284,8 @@
   <dimension ref="A1:F105"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="112" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C5" sqref="C5"/>
+      <pane ySplit="1" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1316,21 +1316,21 @@
         <v>1</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="2" spans="1:6" s="1" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A2" s="15" t="s">
+        <v>265</v>
+      </c>
+      <c r="B2" s="15" t="s">
         <v>266</v>
-      </c>
-      <c r="B2" s="15" t="s">
-        <v>267</v>
       </c>
       <c r="C2" s="15" t="s">
         <v>73</v>
       </c>
       <c r="D2" s="15" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E2" s="15" t="s">
         <v>28</v>
@@ -1339,16 +1339,16 @@
     </row>
     <row r="3" spans="1:6" s="1" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A3" s="15" t="s">
+        <v>267</v>
+      </c>
+      <c r="B3" s="15" t="s">
         <v>268</v>
-      </c>
-      <c r="B3" s="15" t="s">
-        <v>269</v>
       </c>
       <c r="C3" s="15" t="s">
         <v>73</v>
       </c>
       <c r="D3" s="15" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E3" s="15" t="s">
         <v>28</v>
@@ -1363,7 +1363,7 @@
         <v>4</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D4" s="7" t="s">
         <v>85</v>
@@ -1381,7 +1381,7 @@
         <v>86</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D5" s="7" t="s">
         <v>87</v>
@@ -1397,7 +1397,7 @@
         <v>88</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D6" s="7" t="s">
         <v>89</v>
@@ -1413,7 +1413,7 @@
         <v>90</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D7" s="7" t="s">
         <v>91</v>
@@ -1429,7 +1429,7 @@
         <v>7</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D8" s="7" t="s">
         <v>92</v>
@@ -1447,7 +1447,7 @@
         <v>10</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D9" s="7" t="s">
         <v>93</v>
@@ -1465,7 +1465,7 @@
         <v>98</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D10" s="7" t="s">
         <v>99</v>
@@ -1481,7 +1481,7 @@
         <v>100</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D11" s="7" t="s">
         <v>101</v>
@@ -1497,7 +1497,7 @@
         <v>96</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D12" s="7" t="s">
         <v>97</v>
@@ -1515,7 +1515,7 @@
         <v>11</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D13" s="7" t="s">
         <v>94</v>
@@ -1533,7 +1533,7 @@
         <v>12</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D14" s="7" t="s">
         <v>95</v>
@@ -1551,7 +1551,7 @@
         <v>102</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D15" s="7" t="s">
         <v>103</v>
@@ -1569,7 +1569,7 @@
         <v>104</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D16" s="7" t="s">
         <v>105</v>
@@ -1584,16 +1584,16 @@
     <row r="17" spans="1:6" ht="68" x14ac:dyDescent="0.2">
       <c r="A17" s="16"/>
       <c r="B17" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="E17" s="7" t="s">
         <v>106</v>
-      </c>
-      <c r="C17" s="7" t="s">
-        <v>248</v>
-      </c>
-      <c r="D17" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>107</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>66</v>
@@ -1602,13 +1602,13 @@
     <row r="18" spans="1:6" ht="85" x14ac:dyDescent="0.2">
       <c r="A18" s="16"/>
       <c r="B18" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="C18" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="C18" s="7" t="s">
+      <c r="D18" s="7" t="s">
         <v>109</v>
-      </c>
-      <c r="D18" s="7" t="s">
-        <v>110</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>17</v>
@@ -1620,16 +1620,16 @@
     <row r="19" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A19" s="16"/>
       <c r="B19" s="7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C19" s="7" t="s">
         <v>15</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="F19" s="7"/>
     </row>
@@ -1642,10 +1642,10 @@
         <v>15</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="F20" s="7"/>
     </row>
@@ -1655,10 +1655,10 @@
         <v>9</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>16</v>
@@ -1670,13 +1670,13 @@
     <row r="22" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A22" s="16"/>
       <c r="B22" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="D22" s="7" t="s">
         <v>115</v>
-      </c>
-      <c r="C22" s="7" t="s">
-        <v>247</v>
-      </c>
-      <c r="D22" s="7" t="s">
-        <v>116</v>
       </c>
       <c r="E22" s="7" t="s">
         <v>23</v>
@@ -1691,10 +1691,10 @@
         <v>13</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>22</v>
@@ -1709,10 +1709,10 @@
         <v>14</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E24" s="9" t="s">
         <v>23</v>
@@ -1726,13 +1726,13 @@
         <v>24</v>
       </c>
       <c r="B25" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C25" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="C25" s="2" t="s">
+      <c r="D25" s="2" t="s">
         <v>121</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>122</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>20</v>
@@ -1744,7 +1744,7 @@
         <v>98</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D26" s="7" t="s">
         <v>99</v>
@@ -1760,7 +1760,7 @@
         <v>100</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D27" s="7" t="s">
         <v>101</v>
@@ -1776,10 +1776,10 @@
         <v>25</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E28" s="3" t="s">
         <v>20</v>
@@ -1788,13 +1788,13 @@
     <row r="29" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A29" s="16"/>
       <c r="B29" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E29" s="3" t="s">
         <v>20</v>
@@ -1806,7 +1806,7 @@
         <v>96</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D30" s="7" t="s">
         <v>97</v>
@@ -1821,19 +1821,19 @@
     <row r="31" spans="1:6" ht="85" x14ac:dyDescent="0.2">
       <c r="A31" s="16"/>
       <c r="B31" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="C31" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="D31" s="7" t="s">
         <v>126</v>
-      </c>
-      <c r="C31" s="7" t="s">
-        <v>258</v>
-      </c>
-      <c r="D31" s="7" t="s">
-        <v>127</v>
       </c>
       <c r="E31" s="7" t="s">
         <v>28</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="34" x14ac:dyDescent="0.2">
@@ -1845,7 +1845,7 @@
         <v>68</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>29</v>
@@ -1863,7 +1863,7 @@
         <v>68</v>
       </c>
       <c r="D33" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E33" s="7" t="s">
         <v>29</v>
@@ -1875,13 +1875,13 @@
     <row r="34" spans="1:6" s="11" customFormat="1" ht="103" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A34" s="17"/>
       <c r="B34" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="C34" s="9" t="s">
+        <v>252</v>
+      </c>
+      <c r="D34" s="9" t="s">
         <v>131</v>
-      </c>
-      <c r="C34" s="9" t="s">
-        <v>253</v>
-      </c>
-      <c r="D34" s="9" t="s">
-        <v>132</v>
       </c>
       <c r="E34" s="9" t="s">
         <v>23</v>
@@ -1892,16 +1892,16 @@
     </row>
     <row r="35" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A35" s="16" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B35" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C35" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="C35" s="2" t="s">
+      <c r="D35" s="2" t="s">
         <v>121</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>122</v>
       </c>
       <c r="E35" s="2" t="s">
         <v>20</v>
@@ -1910,13 +1910,13 @@
     <row r="36" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A36" s="16"/>
       <c r="B36" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="D36" s="2" t="s">
         <v>134</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>135</v>
       </c>
       <c r="E36" s="2" t="s">
         <v>20</v>
@@ -1925,13 +1925,13 @@
     <row r="37" spans="1:6" ht="85" x14ac:dyDescent="0.2">
       <c r="A37" s="16"/>
       <c r="B37" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C37" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="D37" s="2" t="s">
         <v>109</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>110</v>
       </c>
       <c r="E37" s="2" t="s">
         <v>17</v>
@@ -1946,7 +1946,7 @@
         <v>98</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D38" s="7" t="s">
         <v>99</v>
@@ -1962,7 +1962,7 @@
         <v>100</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D39" s="7" t="s">
         <v>101</v>
@@ -1978,10 +1978,10 @@
         <v>25</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E40" s="3" t="s">
         <v>20</v>
@@ -1990,13 +1990,13 @@
     <row r="41" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A41" s="16"/>
       <c r="B41" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E41" s="3" t="s">
         <v>20</v>
@@ -2008,7 +2008,7 @@
         <v>96</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D42" s="7" t="s">
         <v>97</v>
@@ -2023,67 +2023,67 @@
     <row r="43" spans="1:6" ht="85" x14ac:dyDescent="0.2">
       <c r="A43" s="16"/>
       <c r="B43" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="C43" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="D43" s="7" t="s">
         <v>126</v>
-      </c>
-      <c r="C43" s="7" t="s">
-        <v>259</v>
-      </c>
-      <c r="D43" s="7" t="s">
-        <v>127</v>
       </c>
       <c r="E43" s="7" t="s">
         <v>28</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="85" x14ac:dyDescent="0.2">
       <c r="A44" s="16"/>
       <c r="B44" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="85" x14ac:dyDescent="0.2">
       <c r="A45" s="16"/>
       <c r="B45" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="F45" s="2" t="s">
         <v>138</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>260</v>
-      </c>
-      <c r="D45" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="E45" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="F45" s="2" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A46" s="16"/>
       <c r="B46" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="C46" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="C46" s="2" t="s">
+      <c r="D46" s="2" t="s">
         <v>144</v>
-      </c>
-      <c r="D46" s="2" t="s">
-        <v>145</v>
       </c>
       <c r="E46" s="2" t="s">
         <v>21</v>
@@ -2092,28 +2092,28 @@
     <row r="47" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A47" s="16"/>
       <c r="B47" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="48" spans="1:6" s="11" customFormat="1" ht="35" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A48" s="17"/>
       <c r="B48" s="9" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C48" s="9" t="s">
         <v>73</v>
       </c>
       <c r="D48" s="9" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E48" s="9" t="s">
         <v>23</v>
@@ -2126,7 +2126,7 @@
         <v>98</v>
       </c>
       <c r="C49" s="7" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D49" s="7" t="s">
         <v>99</v>
@@ -2142,7 +2142,7 @@
         <v>100</v>
       </c>
       <c r="C50" s="7" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D50" s="7" t="s">
         <v>101</v>
@@ -2158,10 +2158,10 @@
         <v>25</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E51" s="3" t="s">
         <v>20</v>
@@ -2170,13 +2170,13 @@
     <row r="52" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A52" s="16"/>
       <c r="B52" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E52" s="3" t="s">
         <v>20</v>
@@ -2188,7 +2188,7 @@
         <v>96</v>
       </c>
       <c r="C53" s="7" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D53" s="7" t="s">
         <v>97</v>
@@ -2203,19 +2203,19 @@
     <row r="54" spans="1:6" ht="85" x14ac:dyDescent="0.2">
       <c r="A54" s="16"/>
       <c r="B54" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="C54" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="D54" s="7" t="s">
         <v>126</v>
-      </c>
-      <c r="C54" s="7" t="s">
-        <v>259</v>
-      </c>
-      <c r="D54" s="7" t="s">
-        <v>127</v>
       </c>
       <c r="E54" s="7" t="s">
         <v>28</v>
       </c>
       <c r="F54" s="7" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="55" spans="1:6" ht="119" x14ac:dyDescent="0.2">
@@ -2224,13 +2224,13 @@
         <v>69</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E55" s="5" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>82</v>
@@ -2242,13 +2242,13 @@
         <v>31</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E56" s="5" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>82</v>
@@ -2260,13 +2260,13 @@
         <v>33</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E57" s="5" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>82</v>
@@ -2278,13 +2278,13 @@
         <v>34</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E58" s="5" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>82</v>
@@ -2293,16 +2293,16 @@
     <row r="59" spans="1:6" ht="119" x14ac:dyDescent="0.2">
       <c r="A59" s="16"/>
       <c r="B59" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="D59" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="C59" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="D59" s="2" t="s">
-        <v>156</v>
-      </c>
       <c r="E59" s="5" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>82</v>
@@ -2314,13 +2314,13 @@
         <v>30</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E60" s="5" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>82</v>
@@ -2332,13 +2332,13 @@
         <v>32</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E61" s="5" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>82</v>
@@ -2347,46 +2347,46 @@
     <row r="62" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A62" s="16"/>
       <c r="B62" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E62" s="5" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="63" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A63" s="16"/>
       <c r="B63" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E63" s="5" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="64" spans="1:6" ht="119" x14ac:dyDescent="0.2">
       <c r="A64" s="16"/>
       <c r="B64" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C64" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="D64" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="D64" s="2" t="s">
-        <v>169</v>
-      </c>
       <c r="E64" s="5" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>82</v>
@@ -2395,16 +2395,16 @@
     <row r="65" spans="1:6" ht="119" x14ac:dyDescent="0.2">
       <c r="A65" s="16"/>
       <c r="B65" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C65" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="D65" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="D65" s="2" t="s">
-        <v>171</v>
-      </c>
       <c r="E65" s="5" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>82</v>
@@ -2413,13 +2413,13 @@
     <row r="66" spans="1:6" ht="85" x14ac:dyDescent="0.2">
       <c r="A66" s="16"/>
       <c r="B66" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="D66" s="4" t="s">
         <v>172</v>
-      </c>
-      <c r="C66" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="D66" s="4" t="s">
-        <v>173</v>
       </c>
       <c r="E66" s="5" t="s">
         <v>28</v>
@@ -2428,49 +2428,49 @@
     <row r="67" spans="1:6" ht="102" x14ac:dyDescent="0.2">
       <c r="A67" s="16"/>
       <c r="B67" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E67" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="F67" s="2" t="s">
         <v>177</v>
-      </c>
-      <c r="F67" s="2" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="68" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A68" s="16"/>
       <c r="B68" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E68" s="5" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="69" spans="1:6" ht="119" x14ac:dyDescent="0.2">
       <c r="A69" s="16"/>
       <c r="B69" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E69" s="5" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>82</v>
@@ -2479,16 +2479,16 @@
     <row r="70" spans="1:6" ht="119" x14ac:dyDescent="0.2">
       <c r="A70" s="16"/>
       <c r="B70" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="D70" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="C70" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="D70" s="2" t="s">
-        <v>185</v>
-      </c>
       <c r="E70" s="5" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>82</v>
@@ -2500,13 +2500,13 @@
         <v>36</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E71" s="5" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>82</v>
@@ -2518,13 +2518,13 @@
         <v>35</v>
       </c>
       <c r="C72" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="D72" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="D72" s="2" t="s">
-        <v>188</v>
-      </c>
       <c r="E72" s="5" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>82</v>
@@ -2536,13 +2536,13 @@
         <v>37</v>
       </c>
       <c r="C73" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="D73" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="D73" s="2" t="s">
-        <v>190</v>
-      </c>
       <c r="E73" s="5" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>82</v>
@@ -2554,13 +2554,13 @@
         <v>38</v>
       </c>
       <c r="C74" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="D74" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="D74" s="2" t="s">
-        <v>192</v>
-      </c>
       <c r="E74" s="5" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>82</v>
@@ -2572,13 +2572,13 @@
         <v>39</v>
       </c>
       <c r="C75" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="D75" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="D75" s="2" t="s">
-        <v>194</v>
-      </c>
       <c r="E75" s="5" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>82</v>
@@ -2590,13 +2590,13 @@
         <v>40</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D76" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E76" s="5" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>82</v>
@@ -2608,13 +2608,13 @@
         <v>42</v>
       </c>
       <c r="C77" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="D77" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="D77" s="2" t="s">
-        <v>196</v>
-      </c>
       <c r="E77" s="5" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>82</v>
@@ -2626,13 +2626,13 @@
         <v>41</v>
       </c>
       <c r="C78" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="D78" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="D78" s="2" t="s">
-        <v>199</v>
-      </c>
       <c r="E78" s="5" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>82</v>
@@ -2644,13 +2644,13 @@
         <v>43</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E79" s="5" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>82</v>
@@ -2659,16 +2659,16 @@
     <row r="80" spans="1:6" ht="119" x14ac:dyDescent="0.2">
       <c r="A80" s="16"/>
       <c r="B80" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="C80" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="C80" s="2" t="s">
-        <v>203</v>
-      </c>
       <c r="D80" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E80" s="5" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>82</v>
@@ -2677,16 +2677,16 @@
     <row r="81" spans="1:6" ht="119" x14ac:dyDescent="0.2">
       <c r="A81" s="16"/>
       <c r="B81" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D81" s="3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E81" s="13" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F81" s="3" t="s">
         <v>82</v>
@@ -2698,13 +2698,13 @@
         <v>44</v>
       </c>
       <c r="C82" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="D82" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="D82" s="2" t="s">
-        <v>206</v>
-      </c>
       <c r="E82" s="13" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F82" s="3" t="s">
         <v>82</v>
@@ -2716,13 +2716,13 @@
         <v>45</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E83" s="13" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F83" s="3" t="s">
         <v>82</v>
@@ -2734,13 +2734,13 @@
         <v>46</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E84" s="13" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F84" s="3" t="s">
         <v>82</v>
@@ -2752,13 +2752,13 @@
         <v>47</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E85" s="13" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F85" s="3" t="s">
         <v>82</v>
@@ -2770,13 +2770,13 @@
         <v>48</v>
       </c>
       <c r="C86" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="D86" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="D86" s="2" t="s">
-        <v>214</v>
-      </c>
       <c r="E86" s="13" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F86" s="3" t="s">
         <v>82</v>
@@ -2788,13 +2788,13 @@
         <v>49</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E87" s="13" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F87" s="3" t="s">
         <v>82</v>
@@ -2806,13 +2806,13 @@
         <v>50</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E88" s="13" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F88" s="3" t="s">
         <v>82</v>
@@ -2824,13 +2824,13 @@
         <v>51</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E89" s="13" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F89" s="3" t="s">
         <v>82</v>
@@ -2842,13 +2842,13 @@
         <v>52</v>
       </c>
       <c r="C90" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="D90" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="D90" s="2" t="s">
-        <v>219</v>
-      </c>
       <c r="E90" s="13" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F90" s="3" t="s">
         <v>82</v>
@@ -2860,13 +2860,13 @@
         <v>53</v>
       </c>
       <c r="C91" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="D91" s="3" t="s">
         <v>220</v>
       </c>
-      <c r="D91" s="3" t="s">
-        <v>221</v>
-      </c>
       <c r="E91" s="13" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F91" s="3" t="s">
         <v>82</v>
@@ -2878,13 +2878,13 @@
         <v>54</v>
       </c>
       <c r="C92" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="D92" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="D92" s="2" t="s">
-        <v>223</v>
-      </c>
       <c r="E92" s="13" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F92" s="3" t="s">
         <v>82</v>
@@ -2896,13 +2896,13 @@
         <v>55</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E93" s="13" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F93" s="3" t="s">
         <v>82</v>
@@ -2914,13 +2914,13 @@
         <v>56</v>
       </c>
       <c r="C94" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="D94" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="D94" s="2" t="s">
-        <v>226</v>
-      </c>
       <c r="E94" s="13" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F94" s="3" t="s">
         <v>82</v>
@@ -2932,13 +2932,13 @@
         <v>57</v>
       </c>
       <c r="C95" s="3" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D95" s="3" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E95" s="13" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F95" s="3" t="s">
         <v>82</v>
@@ -2950,13 +2950,13 @@
         <v>58</v>
       </c>
       <c r="C96" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="D96" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="D96" s="2" t="s">
-        <v>229</v>
-      </c>
       <c r="E96" s="13" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F96" s="3" t="s">
         <v>82</v>
@@ -2968,13 +2968,13 @@
         <v>59</v>
       </c>
       <c r="C97" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="D97" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="D97" s="2" t="s">
-        <v>231</v>
-      </c>
       <c r="E97" s="13" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F97" s="3" t="s">
         <v>82</v>
@@ -2986,13 +2986,13 @@
         <v>60</v>
       </c>
       <c r="C98" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="D98" s="2" t="s">
         <v>232</v>
       </c>
-      <c r="D98" s="2" t="s">
-        <v>233</v>
-      </c>
       <c r="E98" s="13" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F98" s="3" t="s">
         <v>82</v>
@@ -3004,13 +3004,13 @@
         <v>61</v>
       </c>
       <c r="C99" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="D99" s="2" t="s">
         <v>234</v>
       </c>
-      <c r="D99" s="2" t="s">
-        <v>235</v>
-      </c>
       <c r="E99" s="13" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F99" s="3" t="s">
         <v>82</v>
@@ -3022,13 +3022,13 @@
         <v>62</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E100" s="13" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F100" s="3" t="s">
         <v>82</v>
@@ -3040,13 +3040,13 @@
         <v>63</v>
       </c>
       <c r="C101" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="D101" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="D101" s="2" t="s">
-        <v>237</v>
-      </c>
       <c r="E101" s="13" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F101" s="3" t="s">
         <v>82</v>
@@ -3061,10 +3061,10 @@
         <v>15</v>
       </c>
       <c r="D102" s="9" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E102" s="14" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F102" s="10" t="s">
         <v>82</v>
@@ -3072,7 +3072,7 @@
     </row>
     <row r="103" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A103" s="18" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B103" s="2" t="s">
         <v>70</v>
@@ -3081,7 +3081,7 @@
         <v>73</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E103" s="2" t="s">
         <v>6</v>
@@ -3093,16 +3093,16 @@
         <v>71</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E104" s="5" t="s">
         <v>23</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="105" spans="1:6" ht="102" x14ac:dyDescent="0.2">
@@ -3111,7 +3111,7 @@
         <v>72</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D105" s="2" t="s">
         <v>74</v>

--- a/docs/scATACpipe_module_references.xlsx
+++ b/docs/scATACpipe_module_references.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10520"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kaihu/Projects/workflow/scATACpipe/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62942806-A961-9A47-AAA0-8E6FEA6B4647}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35A0031F-1216-044A-B240-B455CEEAFA96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1200" yWindow="500" windowWidth="25680" windowHeight="16300" xr2:uid="{D5566E01-952C-494C-8CCC-37924E7B856D}"/>
   </bookViews>
@@ -123,9 +123,6 @@
     <t>hukai916/miniconda3_bio:0.1</t>
   </si>
   <si>
-    <t>hukai916/cellranger_atat_2.0.0:0.1</t>
-  </si>
-  <si>
     <t>ARCHR_CREATE_ARROWFILES_ANNOTATION</t>
   </si>
   <si>
@@ -261,9 +258,6 @@
     <t>generate MultiQC report</t>
   </si>
   <si>
-    <t>hukai916/multiqc:0.1</t>
-  </si>
-  <si>
     <t>[4] Shen, W., Le, S., Li, Y., &amp; Hu, F. (2016). SeqKit: A Cross-Platform and Ultrafast Toolkit for FASTA/Q File Manipulation. PLOS ONE, 11(10), e0163962. https://doi.org/10.1371/journal.pone.0163962</t>
   </si>
   <si>
@@ -481,9 +475,6 @@
   </si>
   <si>
     <t>Create Arrowfiles with fragment files.</t>
-  </si>
-  <si>
-    <t>hukai916/scatacpipe_downstream:0.2</t>
   </si>
   <si>
     <t>wrapper around ArchR::createArrowFiles() [10]</t>
@@ -823,9 +814,6 @@
     <t>AMULET (v1.1) [14]</t>
   </si>
   <si>
-    <t>hukai916/scatacpipe_downstream:0.2 (constructed using a custom ArchR built based on v1.0.1: https://github.com/hukai916/ArchR-1)</t>
-  </si>
-  <si>
     <t>Reference</t>
   </si>
   <si>
@@ -848,6 +836,18 @@
   </si>
   <si>
     <t>DEDUP_BAM/DEDUP_BAM2</t>
+  </si>
+  <si>
+    <t>hukai916/cellranger_atat_2.1.0:0.1</t>
+  </si>
+  <si>
+    <t>hukai916/scatacpipe_downstream:0.2.1 (constructed using a custom ArchR built based on v1.0.1: https://github.com/hukai916/ArchR-1)</t>
+  </si>
+  <si>
+    <t>hukai916/scatacpipe_downstream:0.2.1</t>
+  </si>
+  <si>
+    <t>hukai916/multiqc:0.1.9</t>
   </si>
 </sst>
 </file>
@@ -1284,8 +1284,8 @@
   <dimension ref="A1:F105"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="112" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B17" sqref="B17"/>
+      <pane ySplit="1" topLeftCell="A100" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E105" sqref="E105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1307,7 +1307,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D1" s="6" t="s">
         <v>2</v>
@@ -1316,21 +1316,21 @@
         <v>1</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
     </row>
     <row r="2" spans="1:6" s="1" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A2" s="15" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D2" s="15" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="E2" s="15" t="s">
         <v>28</v>
@@ -1339,16 +1339,16 @@
     </row>
     <row r="3" spans="1:6" s="1" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A3" s="15" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D3" s="15" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="E3" s="15" t="s">
         <v>28</v>
@@ -1363,28 +1363,28 @@
         <v>4</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>6</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="68" x14ac:dyDescent="0.2">
       <c r="A5" s="16"/>
       <c r="B5" s="7" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>23</v>
@@ -1394,13 +1394,13 @@
     <row r="6" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A6" s="16"/>
       <c r="B6" s="7" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>23</v>
@@ -1410,13 +1410,13 @@
     <row r="7" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A7" s="16"/>
       <c r="B7" s="7" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>23</v>
@@ -1429,16 +1429,16 @@
         <v>7</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>23</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="68" x14ac:dyDescent="0.2">
@@ -1447,28 +1447,28 @@
         <v>10</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>18</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A10" s="16"/>
       <c r="B10" s="7" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>20</v>
@@ -1478,13 +1478,13 @@
     <row r="11" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A11" s="16"/>
       <c r="B11" s="7" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>20</v>
@@ -1494,19 +1494,19 @@
     <row r="12" spans="1:6" ht="102" x14ac:dyDescent="0.2">
       <c r="A12" s="16"/>
       <c r="B12" s="7" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>19</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="85" x14ac:dyDescent="0.2">
@@ -1515,16 +1515,16 @@
         <v>11</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>19</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="85" x14ac:dyDescent="0.2">
@@ -1533,103 +1533,103 @@
         <v>12</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>19</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="102" x14ac:dyDescent="0.2">
       <c r="A15" s="16"/>
       <c r="B15" s="7" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>21</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="102" x14ac:dyDescent="0.2">
       <c r="A16" s="16"/>
       <c r="B16" s="7" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>21</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="68" x14ac:dyDescent="0.2">
       <c r="A17" s="16"/>
       <c r="B17" s="7" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="85" x14ac:dyDescent="0.2">
       <c r="A18" s="16"/>
       <c r="B18" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="D18" s="7" t="s">
         <v>107</v>
-      </c>
-      <c r="C18" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="D18" s="7" t="s">
-        <v>109</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A19" s="16"/>
       <c r="B19" s="7" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C19" s="7" t="s">
         <v>15</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="F19" s="7"/>
     </row>
@@ -1642,10 +1642,10 @@
         <v>15</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="F20" s="7"/>
     </row>
@@ -1655,34 +1655,34 @@
         <v>9</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>16</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A22" s="16"/>
       <c r="B22" s="7" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E22" s="7" t="s">
         <v>23</v>
       </c>
       <c r="F22" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="119" x14ac:dyDescent="0.2">
@@ -1691,16 +1691,16 @@
         <v>13</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>22</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="24" spans="1:6" s="11" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -1709,16 +1709,16 @@
         <v>14</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E24" s="9" t="s">
         <v>23</v>
       </c>
       <c r="F24" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="51" x14ac:dyDescent="0.2">
@@ -1726,13 +1726,13 @@
         <v>24</v>
       </c>
       <c r="B25" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="D25" s="2" t="s">
         <v>119</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>121</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>20</v>
@@ -1741,13 +1741,13 @@
     <row r="26" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A26" s="16"/>
       <c r="B26" s="7" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E26" s="7" t="s">
         <v>20</v>
@@ -1757,13 +1757,13 @@
     <row r="27" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A27" s="16"/>
       <c r="B27" s="7" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>20</v>
@@ -1776,10 +1776,10 @@
         <v>25</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E28" s="3" t="s">
         <v>20</v>
@@ -1788,13 +1788,13 @@
     <row r="29" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A29" s="16"/>
       <c r="B29" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="D29" s="2" t="s">
         <v>122</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>244</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>124</v>
       </c>
       <c r="E29" s="3" t="s">
         <v>20</v>
@@ -1803,37 +1803,37 @@
     <row r="30" spans="1:6" ht="102" x14ac:dyDescent="0.2">
       <c r="A30" s="16"/>
       <c r="B30" s="7" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="D30" s="7" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>19</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="85" x14ac:dyDescent="0.2">
       <c r="A31" s="16"/>
       <c r="B31" s="7" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="D31" s="7" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E31" s="7" t="s">
         <v>28</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="34" x14ac:dyDescent="0.2">
@@ -1842,16 +1842,16 @@
         <v>26</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>29</v>
+        <v>267</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="33" spans="1:6" s="12" customFormat="1" ht="34" x14ac:dyDescent="0.2">
@@ -1860,48 +1860,48 @@
         <v>27</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D33" s="7" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>29</v>
+        <v>267</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="34" spans="1:6" s="11" customFormat="1" ht="103" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A34" s="17"/>
       <c r="B34" s="9" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C34" s="9" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="D34" s="9" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E34" s="9" t="s">
         <v>23</v>
       </c>
       <c r="F34" s="9" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A35" s="16" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B35" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="D35" s="2" t="s">
         <v>119</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>121</v>
       </c>
       <c r="E35" s="2" t="s">
         <v>20</v>
@@ -1910,13 +1910,13 @@
     <row r="36" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A36" s="16"/>
       <c r="B36" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="E36" s="2" t="s">
         <v>20</v>
@@ -1925,31 +1925,31 @@
     <row r="37" spans="1:6" ht="85" x14ac:dyDescent="0.2">
       <c r="A37" s="16"/>
       <c r="B37" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E37" s="2" t="s">
         <v>17</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A38" s="16"/>
       <c r="B38" s="7" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="D38" s="7" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E38" s="7" t="s">
         <v>20</v>
@@ -1959,13 +1959,13 @@
     <row r="39" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A39" s="16"/>
       <c r="B39" s="7" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="D39" s="7" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E39" s="7" t="s">
         <v>20</v>
@@ -1978,10 +1978,10 @@
         <v>25</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E40" s="3" t="s">
         <v>20</v>
@@ -1990,13 +1990,13 @@
     <row r="41" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A41" s="16"/>
       <c r="B41" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="D41" s="2" t="s">
         <v>122</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>244</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>124</v>
       </c>
       <c r="E41" s="3" t="s">
         <v>20</v>
@@ -2005,85 +2005,85 @@
     <row r="42" spans="1:6" ht="102" x14ac:dyDescent="0.2">
       <c r="A42" s="16"/>
       <c r="B42" s="7" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="D42" s="7" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E42" s="7" t="s">
         <v>19</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="85" x14ac:dyDescent="0.2">
       <c r="A43" s="16"/>
       <c r="B43" s="7" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="D43" s="7" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E43" s="7" t="s">
         <v>28</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="85" x14ac:dyDescent="0.2">
       <c r="A44" s="16"/>
       <c r="B44" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="F44" s="2" t="s">
         <v>136</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>259</v>
-      </c>
-      <c r="D44" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="E44" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="F44" s="2" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="85" x14ac:dyDescent="0.2">
       <c r="A45" s="16"/>
       <c r="B45" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="E45" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="C45" s="2" t="s">
-        <v>259</v>
-      </c>
-      <c r="D45" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="E45" s="2" t="s">
-        <v>139</v>
-      </c>
       <c r="F45" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A46" s="16"/>
       <c r="B46" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="D46" s="2" t="s">
         <v>142</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="D46" s="2" t="s">
-        <v>144</v>
       </c>
       <c r="E46" s="2" t="s">
         <v>21</v>
@@ -2092,28 +2092,28 @@
     <row r="47" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A47" s="16"/>
       <c r="B47" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
     </row>
     <row r="48" spans="1:6" s="11" customFormat="1" ht="35" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A48" s="17"/>
       <c r="B48" s="9" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C48" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D48" s="9" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E48" s="9" t="s">
         <v>23</v>
@@ -2123,13 +2123,13 @@
     <row r="49" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A49" s="16"/>
       <c r="B49" s="7" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C49" s="7" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="D49" s="7" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E49" s="7" t="s">
         <v>20</v>
@@ -2139,13 +2139,13 @@
     <row r="50" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A50" s="16"/>
       <c r="B50" s="7" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C50" s="7" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="D50" s="7" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E50" s="7" t="s">
         <v>20</v>
@@ -2158,10 +2158,10 @@
         <v>25</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E51" s="3" t="s">
         <v>20</v>
@@ -2170,13 +2170,13 @@
     <row r="52" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A52" s="16"/>
       <c r="B52" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="D52" s="2" t="s">
         <v>122</v>
-      </c>
-      <c r="C52" s="2" t="s">
-        <v>244</v>
-      </c>
-      <c r="D52" s="2" t="s">
-        <v>124</v>
       </c>
       <c r="E52" s="3" t="s">
         <v>20</v>
@@ -2185,241 +2185,241 @@
     <row r="53" spans="1:6" ht="102" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="16"/>
       <c r="B53" s="7" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C53" s="7" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="D53" s="7" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E53" s="7" t="s">
         <v>19</v>
       </c>
       <c r="F53" s="7" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="54" spans="1:6" ht="85" x14ac:dyDescent="0.2">
       <c r="A54" s="16"/>
       <c r="B54" s="7" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C54" s="7" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="D54" s="7" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E54" s="7" t="s">
         <v>28</v>
       </c>
       <c r="F54" s="7" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="55" spans="1:6" ht="119" x14ac:dyDescent="0.2">
       <c r="A55" s="16"/>
       <c r="B55" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="E55" s="5" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="56" spans="1:6" ht="119" x14ac:dyDescent="0.2">
       <c r="A56" s="16"/>
       <c r="B56" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="E56" s="5" t="s">
-        <v>149</v>
+        <v>269</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="57" spans="1:6" ht="119" x14ac:dyDescent="0.2">
       <c r="A57" s="16"/>
       <c r="B57" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="E57" s="5" t="s">
-        <v>149</v>
+        <v>269</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="58" spans="1:6" ht="119" x14ac:dyDescent="0.2">
       <c r="A58" s="16"/>
       <c r="B58" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="E58" s="5" t="s">
-        <v>149</v>
+        <v>269</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="59" spans="1:6" ht="119" x14ac:dyDescent="0.2">
       <c r="A59" s="16"/>
       <c r="B59" s="2" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="E59" s="5" t="s">
-        <v>149</v>
+        <v>269</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="60" spans="1:6" ht="119" x14ac:dyDescent="0.2">
       <c r="A60" s="16"/>
       <c r="B60" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="E60" s="5" t="s">
-        <v>149</v>
+        <v>269</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="61" spans="1:6" ht="119" x14ac:dyDescent="0.2">
       <c r="A61" s="16"/>
       <c r="B61" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="E61" s="5" t="s">
-        <v>149</v>
+        <v>269</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="62" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A62" s="16"/>
       <c r="B62" s="2" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="E62" s="5" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
     </row>
     <row r="63" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A63" s="16"/>
       <c r="B63" s="2" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="E63" s="5" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
     </row>
     <row r="64" spans="1:6" ht="119" x14ac:dyDescent="0.2">
       <c r="A64" s="16"/>
       <c r="B64" s="2" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="E64" s="5" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="65" spans="1:6" ht="119" x14ac:dyDescent="0.2">
       <c r="A65" s="16"/>
       <c r="B65" s="2" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="E65" s="5" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="66" spans="1:6" ht="85" x14ac:dyDescent="0.2">
       <c r="A66" s="16"/>
       <c r="B66" s="2" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D66" s="4" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="E66" s="5" t="s">
         <v>28</v>
@@ -2428,660 +2428,660 @@
     <row r="67" spans="1:6" ht="102" x14ac:dyDescent="0.2">
       <c r="A67" s="16"/>
       <c r="B67" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="E67" s="5" t="s">
         <v>173</v>
       </c>
-      <c r="C67" s="2" t="s">
-        <v>261</v>
-      </c>
-      <c r="D67" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="E67" s="5" t="s">
-        <v>176</v>
-      </c>
       <c r="F67" s="2" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
     </row>
     <row r="68" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A68" s="16"/>
       <c r="B68" s="2" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="E68" s="5" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
     </row>
     <row r="69" spans="1:6" ht="119" x14ac:dyDescent="0.2">
       <c r="A69" s="16"/>
       <c r="B69" s="2" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="E69" s="5" t="s">
-        <v>149</v>
+        <v>269</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="70" spans="1:6" ht="119" x14ac:dyDescent="0.2">
       <c r="A70" s="16"/>
       <c r="B70" s="2" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="E70" s="5" t="s">
-        <v>149</v>
+        <v>269</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="71" spans="1:6" ht="119" x14ac:dyDescent="0.2">
       <c r="A71" s="16"/>
       <c r="B71" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="E71" s="5" t="s">
-        <v>149</v>
+        <v>269</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="72" spans="1:6" ht="119" x14ac:dyDescent="0.2">
       <c r="A72" s="16"/>
       <c r="B72" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="E72" s="5" t="s">
-        <v>149</v>
+        <v>269</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="73" spans="1:6" ht="119" x14ac:dyDescent="0.2">
       <c r="A73" s="16"/>
       <c r="B73" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="E73" s="5" t="s">
-        <v>149</v>
+        <v>269</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="74" spans="1:6" ht="119" x14ac:dyDescent="0.2">
       <c r="A74" s="16"/>
       <c r="B74" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="E74" s="5" t="s">
-        <v>149</v>
+        <v>269</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="75" spans="1:6" ht="119" x14ac:dyDescent="0.2">
       <c r="A75" s="16"/>
       <c r="B75" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="E75" s="5" t="s">
-        <v>149</v>
+        <v>269</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="76" spans="1:6" ht="119" x14ac:dyDescent="0.2">
       <c r="A76" s="16"/>
       <c r="B76" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="D76" s="3" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="E76" s="5" t="s">
-        <v>149</v>
+        <v>269</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="77" spans="1:6" ht="119" x14ac:dyDescent="0.2">
       <c r="A77" s="16"/>
       <c r="B77" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="E77" s="5" t="s">
-        <v>149</v>
+        <v>269</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="78" spans="1:6" ht="119" x14ac:dyDescent="0.2">
       <c r="A78" s="16"/>
       <c r="B78" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="E78" s="5" t="s">
-        <v>149</v>
+        <v>269</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="79" spans="1:6" ht="119" x14ac:dyDescent="0.2">
       <c r="A79" s="16"/>
       <c r="B79" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="E79" s="5" t="s">
-        <v>149</v>
+        <v>269</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="80" spans="1:6" ht="119" x14ac:dyDescent="0.2">
       <c r="A80" s="16"/>
       <c r="B80" s="2" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="E80" s="5" t="s">
-        <v>149</v>
+        <v>269</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="81" spans="1:6" ht="119" x14ac:dyDescent="0.2">
       <c r="A81" s="16"/>
       <c r="B81" s="3" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="D81" s="3" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="E81" s="13" t="s">
-        <v>149</v>
+        <v>269</v>
       </c>
       <c r="F81" s="3" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="82" spans="1:6" ht="119" x14ac:dyDescent="0.2">
       <c r="A82" s="16"/>
       <c r="B82" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="E82" s="13" t="s">
-        <v>149</v>
+        <v>269</v>
       </c>
       <c r="F82" s="3" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="83" spans="1:6" ht="119" x14ac:dyDescent="0.2">
       <c r="A83" s="16"/>
       <c r="B83" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="E83" s="13" t="s">
-        <v>149</v>
+        <v>269</v>
       </c>
       <c r="F83" s="3" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="84" spans="1:6" ht="119" x14ac:dyDescent="0.2">
       <c r="A84" s="16"/>
       <c r="B84" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="E84" s="13" t="s">
-        <v>149</v>
+        <v>269</v>
       </c>
       <c r="F84" s="3" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="85" spans="1:6" ht="119" x14ac:dyDescent="0.2">
       <c r="A85" s="16"/>
       <c r="B85" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="E85" s="13" t="s">
-        <v>149</v>
+        <v>269</v>
       </c>
       <c r="F85" s="3" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="86" spans="1:6" ht="119" x14ac:dyDescent="0.2">
       <c r="A86" s="16"/>
       <c r="B86" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="E86" s="13" t="s">
-        <v>149</v>
+        <v>269</v>
       </c>
       <c r="F86" s="3" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="87" spans="1:6" ht="119" x14ac:dyDescent="0.2">
       <c r="A87" s="16"/>
       <c r="B87" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="E87" s="13" t="s">
-        <v>149</v>
+        <v>269</v>
       </c>
       <c r="F87" s="3" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="88" spans="1:6" ht="119" x14ac:dyDescent="0.2">
       <c r="A88" s="16"/>
       <c r="B88" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="E88" s="13" t="s">
-        <v>149</v>
+        <v>269</v>
       </c>
       <c r="F88" s="3" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="89" spans="1:6" ht="119" x14ac:dyDescent="0.2">
       <c r="A89" s="16"/>
       <c r="B89" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="E89" s="13" t="s">
-        <v>149</v>
+        <v>269</v>
       </c>
       <c r="F89" s="3" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="90" spans="1:6" ht="119" x14ac:dyDescent="0.2">
       <c r="A90" s="16"/>
       <c r="B90" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="E90" s="13" t="s">
-        <v>149</v>
+        <v>269</v>
       </c>
       <c r="F90" s="3" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="91" spans="1:6" ht="119" x14ac:dyDescent="0.2">
       <c r="A91" s="16"/>
       <c r="B91" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C91" s="3" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="D91" s="3" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="E91" s="13" t="s">
-        <v>149</v>
+        <v>269</v>
       </c>
       <c r="F91" s="3" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="92" spans="1:6" ht="119" x14ac:dyDescent="0.2">
       <c r="A92" s="16"/>
       <c r="B92" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="E92" s="13" t="s">
-        <v>149</v>
+        <v>269</v>
       </c>
       <c r="F92" s="3" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="93" spans="1:6" ht="119" x14ac:dyDescent="0.2">
       <c r="A93" s="16"/>
       <c r="B93" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="E93" s="13" t="s">
-        <v>149</v>
+        <v>269</v>
       </c>
       <c r="F93" s="3" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="94" spans="1:6" ht="119" x14ac:dyDescent="0.2">
       <c r="A94" s="16"/>
       <c r="B94" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="E94" s="13" t="s">
-        <v>149</v>
+        <v>269</v>
       </c>
       <c r="F94" s="3" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="95" spans="1:6" ht="119" x14ac:dyDescent="0.2">
       <c r="A95" s="16"/>
       <c r="B95" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C95" s="3" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="D95" s="3" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="E95" s="13" t="s">
-        <v>149</v>
+        <v>269</v>
       </c>
       <c r="F95" s="3" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="96" spans="1:6" ht="119" x14ac:dyDescent="0.2">
       <c r="A96" s="16"/>
       <c r="B96" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="E96" s="13" t="s">
-        <v>149</v>
+        <v>269</v>
       </c>
       <c r="F96" s="3" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="97" spans="1:6" ht="119" x14ac:dyDescent="0.2">
       <c r="A97" s="16"/>
       <c r="B97" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="E97" s="13" t="s">
-        <v>149</v>
+        <v>269</v>
       </c>
       <c r="F97" s="3" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="98" spans="1:6" ht="119" x14ac:dyDescent="0.2">
       <c r="A98" s="16"/>
       <c r="B98" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="E98" s="13" t="s">
-        <v>149</v>
+        <v>269</v>
       </c>
       <c r="F98" s="3" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="99" spans="1:6" ht="119" x14ac:dyDescent="0.2">
       <c r="A99" s="16"/>
       <c r="B99" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="E99" s="13" t="s">
-        <v>149</v>
+        <v>269</v>
       </c>
       <c r="F99" s="3" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="100" spans="1:6" ht="119" x14ac:dyDescent="0.2">
       <c r="A100" s="16"/>
       <c r="B100" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="E100" s="13" t="s">
-        <v>149</v>
+        <v>269</v>
       </c>
       <c r="F100" s="3" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="101" spans="1:6" ht="119" x14ac:dyDescent="0.2">
       <c r="A101" s="16"/>
       <c r="B101" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="E101" s="13" t="s">
-        <v>149</v>
+        <v>269</v>
       </c>
       <c r="F101" s="3" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="102" spans="1:6" s="11" customFormat="1" ht="120" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A102" s="17"/>
       <c r="B102" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C102" s="9" t="s">
         <v>15</v>
       </c>
       <c r="D102" s="9" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="E102" s="14" t="s">
-        <v>149</v>
+        <v>269</v>
       </c>
       <c r="F102" s="10" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="103" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A103" s="18" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="E103" s="2" t="s">
         <v>6</v>
@@ -3090,37 +3090,37 @@
     <row r="104" spans="1:6" ht="119" x14ac:dyDescent="0.2">
       <c r="A104" s="18"/>
       <c r="B104" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="E104" s="5" t="s">
         <v>23</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
     </row>
     <row r="105" spans="1:6" ht="102" x14ac:dyDescent="0.2">
       <c r="A105" s="18"/>
       <c r="B105" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>75</v>
+        <v>270</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>

--- a/docs/scATACpipe_module_references.xlsx
+++ b/docs/scATACpipe_module_references.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kaihu/Projects/workflow/scATACpipe/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35A0031F-1216-044A-B240-B455CEEAFA96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{401A2E8E-5EFF-134C-B5A3-FC389A40A35D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1200" yWindow="500" windowWidth="25680" windowHeight="16300" xr2:uid="{D5566E01-952C-494C-8CCC-37924E7B856D}"/>
   </bookViews>
@@ -847,7 +847,7 @@
     <t>hukai916/scatacpipe_downstream:0.2.1</t>
   </si>
   <si>
-    <t>hukai916/multiqc:0.1.9</t>
+    <t>hukai916/multiqc:0.1.10</t>
   </si>
 </sst>
 </file>
